--- a/na0/연도더미미세먼지_04221106.xlsx
+++ b/na0/연도더미미세먼지_04221106.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/29d42689bcb49258/문서/GitHub/python_project/na0/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_8A8D20F939BD6C2ACBF278A528CEAB844BCABDF8" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{65863CC5-6286-467E-837B-3A669FDBDCC5}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="89">
   <si>
     <t>미세먼지</t>
   </si>
@@ -35,9 +41,6 @@
   </si>
   <si>
     <t>1km내 복원하천 여부</t>
-  </si>
-  <si>
-    <t>녹지면적 합계</t>
   </si>
   <si>
     <t>측정소명</t>
@@ -217,11 +220,80 @@
   <si>
     <t>강수량합(mm)</t>
   </si>
+  <si>
+    <t>복원하천 면적</t>
+  </si>
+  <si>
+    <t>225482</t>
+  </si>
+  <si>
+    <t>40760, 9637</t>
+  </si>
+  <si>
+    <t>63436</t>
+  </si>
+  <si>
+    <t>110561</t>
+  </si>
+  <si>
+    <t>52409</t>
+  </si>
+  <si>
+    <t>23503, 26631</t>
+  </si>
+  <si>
+    <t>120435</t>
+  </si>
+  <si>
+    <t>37645</t>
+  </si>
+  <si>
+    <t>41457</t>
+  </si>
+  <si>
+    <t>74780</t>
+  </si>
+  <si>
+    <t>91088</t>
+  </si>
+  <si>
+    <t>10957</t>
+  </si>
+  <si>
+    <t>141038</t>
+  </si>
+  <si>
+    <t>465976</t>
+  </si>
+  <si>
+    <t>152108</t>
+  </si>
+  <si>
+    <t>18345</t>
+  </si>
+  <si>
+    <t>40577</t>
+  </si>
+  <si>
+    <t>30911</t>
+  </si>
+  <si>
+    <t>17268</t>
+  </si>
+  <si>
+    <t>39652</t>
+  </si>
+  <si>
+    <t>48616</t>
+  </si>
+  <si>
+    <t>493265</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -592,27 +664,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB271"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.5" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="10.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.875" customWidth="1"/>
-    <col min="14" max="14" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.83203125" customWidth="1"/>
+    <col min="14" max="14" width="12.58203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1">
         <v>2015</v>
@@ -648,7 +720,7 @@
         <v>4</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>5</v>
@@ -657,48 +729,48 @@
         <v>6</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="Q1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AB1" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -742,9 +814,6 @@
       <c r="O2">
         <v>0</v>
       </c>
-      <c r="P2">
-        <v>166569</v>
-      </c>
       <c r="Q2">
         <v>14.3</v>
       </c>
@@ -779,9 +848,9 @@
         <v>818</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -825,9 +894,6 @@
       <c r="O3">
         <v>0</v>
       </c>
-      <c r="P3">
-        <v>166569</v>
-      </c>
       <c r="Q3">
         <v>14.5</v>
       </c>
@@ -865,9 +931,9 @@
         <v>1005.5</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -911,9 +977,6 @@
       <c r="O4">
         <v>0</v>
       </c>
-      <c r="P4">
-        <v>166569</v>
-      </c>
       <c r="Q4">
         <v>13.7</v>
       </c>
@@ -948,9 +1011,9 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -994,9 +1057,6 @@
       <c r="O5">
         <v>0</v>
       </c>
-      <c r="P5">
-        <v>166569</v>
-      </c>
       <c r="Q5">
         <v>13.7</v>
       </c>
@@ -1034,9 +1094,9 @@
         <v>1312.5</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1080,9 +1140,6 @@
       <c r="O6">
         <v>0</v>
       </c>
-      <c r="P6">
-        <v>166569</v>
-      </c>
       <c r="S6">
         <v>37.700000000000003</v>
       </c>
@@ -1108,9 +1165,9 @@
         <v>981.5</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1154,9 +1211,6 @@
       <c r="O7">
         <v>0</v>
       </c>
-      <c r="P7">
-        <v>166569</v>
-      </c>
       <c r="Q7">
         <v>13.9</v>
       </c>
@@ -1194,9 +1248,9 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1240,8 +1294,8 @@
       <c r="O8">
         <v>1</v>
       </c>
-      <c r="P8">
-        <v>545826</v>
+      <c r="P8" t="s">
+        <v>67</v>
       </c>
       <c r="Q8">
         <v>14.4</v>
@@ -1280,9 +1334,9 @@
         <v>825</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1326,8 +1380,8 @@
       <c r="O9">
         <v>1</v>
       </c>
-      <c r="P9">
-        <v>545826</v>
+      <c r="P9" t="s">
+        <v>67</v>
       </c>
       <c r="Q9">
         <v>14.7</v>
@@ -1366,9 +1420,9 @@
         <v>992</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1412,8 +1466,8 @@
       <c r="O10">
         <v>1</v>
       </c>
-      <c r="P10">
-        <v>545826</v>
+      <c r="P10" t="s">
+        <v>67</v>
       </c>
       <c r="Q10">
         <v>13.5</v>
@@ -1452,9 +1506,9 @@
         <v>1198.5</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1498,8 +1552,8 @@
       <c r="O11">
         <v>1</v>
       </c>
-      <c r="P11">
-        <v>545826</v>
+      <c r="P11" t="s">
+        <v>67</v>
       </c>
       <c r="Q11">
         <v>13.3</v>
@@ -1538,9 +1592,9 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1584,8 +1638,8 @@
       <c r="O12">
         <v>1</v>
       </c>
-      <c r="P12">
-        <v>545826</v>
+      <c r="P12" t="s">
+        <v>67</v>
       </c>
       <c r="Q12">
         <v>13.9</v>
@@ -1624,9 +1678,9 @@
         <v>988</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1670,8 +1724,8 @@
       <c r="O13">
         <v>1</v>
       </c>
-      <c r="P13">
-        <v>545826</v>
+      <c r="P13" t="s">
+        <v>67</v>
       </c>
       <c r="Q13">
         <v>13.6</v>
@@ -1710,9 +1764,9 @@
         <v>1607.5</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1756,9 +1810,6 @@
       <c r="O14">
         <v>0</v>
       </c>
-      <c r="P14">
-        <v>42798</v>
-      </c>
       <c r="Q14">
         <v>13.9</v>
       </c>
@@ -1796,9 +1847,9 @@
         <v>808.5</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1842,9 +1893,6 @@
       <c r="O15">
         <v>0</v>
       </c>
-      <c r="P15">
-        <v>42798</v>
-      </c>
       <c r="Q15">
         <v>13.7</v>
       </c>
@@ -1882,9 +1930,9 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1928,9 +1976,6 @@
       <c r="O16">
         <v>0</v>
       </c>
-      <c r="P16">
-        <v>42798</v>
-      </c>
       <c r="Q16">
         <v>12.9</v>
       </c>
@@ -1968,9 +2013,9 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2014,9 +2059,6 @@
       <c r="O17">
         <v>0</v>
       </c>
-      <c r="P17">
-        <v>42798</v>
-      </c>
       <c r="Q17">
         <v>13</v>
       </c>
@@ -2054,9 +2096,9 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2100,9 +2142,6 @@
       <c r="O18">
         <v>0</v>
       </c>
-      <c r="P18">
-        <v>42798</v>
-      </c>
       <c r="Q18">
         <v>13.6</v>
       </c>
@@ -2140,9 +2179,9 @@
         <v>1039.5</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2186,9 +2225,6 @@
       <c r="O19">
         <v>0</v>
       </c>
-      <c r="P19">
-        <v>42798</v>
-      </c>
       <c r="Q19">
         <v>13.6</v>
       </c>
@@ -2226,9 +2262,9 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -2272,9 +2308,6 @@
       <c r="O20">
         <v>0</v>
       </c>
-      <c r="P20">
-        <v>949941</v>
-      </c>
       <c r="Q20">
         <v>14.3</v>
       </c>
@@ -2312,9 +2345,9 @@
         <v>791</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2358,9 +2391,6 @@
       <c r="O21">
         <v>0</v>
       </c>
-      <c r="P21">
-        <v>949941</v>
-      </c>
       <c r="Q21">
         <v>14.6</v>
       </c>
@@ -2398,9 +2428,9 @@
         <v>951.5</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -2444,9 +2474,6 @@
       <c r="O22">
         <v>0</v>
       </c>
-      <c r="P22">
-        <v>949941</v>
-      </c>
       <c r="Q22">
         <v>14</v>
       </c>
@@ -2484,9 +2511,9 @@
         <v>1207.5</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -2530,9 +2557,6 @@
       <c r="O23">
         <v>0</v>
       </c>
-      <c r="P23">
-        <v>949941</v>
-      </c>
       <c r="Q23">
         <v>13.9</v>
       </c>
@@ -2570,9 +2594,9 @@
         <v>1297.5</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -2616,9 +2640,6 @@
       <c r="O24">
         <v>0</v>
       </c>
-      <c r="P24">
-        <v>949941</v>
-      </c>
       <c r="Q24">
         <v>14.5</v>
       </c>
@@ -2656,9 +2677,9 @@
         <v>976</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -2702,9 +2723,6 @@
       <c r="O25">
         <v>0</v>
       </c>
-      <c r="P25">
-        <v>949941</v>
-      </c>
       <c r="Q25">
         <v>14.2</v>
       </c>
@@ -2742,9 +2760,9 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -2788,8 +2806,8 @@
       <c r="O26">
         <v>1</v>
       </c>
-      <c r="P26">
-        <v>830402</v>
+      <c r="P26" t="s">
+        <v>68</v>
       </c>
       <c r="Q26">
         <v>14</v>
@@ -2828,9 +2846,9 @@
         <v>861.5</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -2874,8 +2892,8 @@
       <c r="O27">
         <v>1</v>
       </c>
-      <c r="P27">
-        <v>830402</v>
+      <c r="P27" t="s">
+        <v>68</v>
       </c>
       <c r="Q27">
         <v>14.1</v>
@@ -2914,9 +2932,9 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -2960,8 +2978,8 @@
       <c r="O28">
         <v>1</v>
       </c>
-      <c r="P28">
-        <v>830402</v>
+      <c r="P28" t="s">
+        <v>68</v>
       </c>
       <c r="Q28">
         <v>13.3</v>
@@ -3000,9 +3018,9 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3046,8 +3064,8 @@
       <c r="O29">
         <v>1</v>
       </c>
-      <c r="P29">
-        <v>830402</v>
+      <c r="P29" t="s">
+        <v>68</v>
       </c>
       <c r="Q29">
         <v>13.3</v>
@@ -3086,9 +3104,9 @@
         <v>1391.5</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -3132,8 +3150,8 @@
       <c r="O30">
         <v>1</v>
       </c>
-      <c r="P30">
-        <v>830402</v>
+      <c r="P30" t="s">
+        <v>68</v>
       </c>
       <c r="Q30">
         <v>14</v>
@@ -3172,9 +3190,9 @@
         <v>942</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -3218,8 +3236,8 @@
       <c r="O31">
         <v>1</v>
       </c>
-      <c r="P31">
-        <v>830402</v>
+      <c r="P31" t="s">
+        <v>68</v>
       </c>
       <c r="Q31">
         <v>13.8</v>
@@ -3258,9 +3276,9 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -3304,9 +3322,6 @@
       <c r="O32">
         <v>0</v>
       </c>
-      <c r="P32">
-        <v>271226</v>
-      </c>
       <c r="Q32">
         <v>13.8</v>
       </c>
@@ -3344,9 +3359,9 @@
         <v>698</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -3390,9 +3405,6 @@
       <c r="O33">
         <v>0</v>
       </c>
-      <c r="P33">
-        <v>271226</v>
-      </c>
       <c r="Q33">
         <v>14</v>
       </c>
@@ -3430,9 +3442,9 @@
         <v>897</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -3476,9 +3488,6 @@
       <c r="O34">
         <v>0</v>
       </c>
-      <c r="P34">
-        <v>271226</v>
-      </c>
       <c r="S34">
         <v>35.700000000000003</v>
       </c>
@@ -3501,9 +3510,9 @@
         <v>1040.5</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -3547,9 +3556,6 @@
       <c r="O35">
         <v>0</v>
       </c>
-      <c r="P35">
-        <v>271226</v>
-      </c>
       <c r="Q35">
         <v>12.8</v>
       </c>
@@ -3587,9 +3593,9 @@
         <v>1163.5</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -3633,9 +3639,6 @@
       <c r="O36">
         <v>0</v>
       </c>
-      <c r="P36">
-        <v>271226</v>
-      </c>
       <c r="Q36">
         <v>13.5</v>
       </c>
@@ -3673,9 +3676,9 @@
         <v>899.5</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -3719,9 +3722,6 @@
       <c r="O37">
         <v>0</v>
       </c>
-      <c r="P37">
-        <v>271226</v>
-      </c>
       <c r="Q37">
         <v>13.3</v>
       </c>
@@ -3759,9 +3759,9 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -3805,9 +3805,6 @@
       <c r="O38">
         <v>0</v>
       </c>
-      <c r="P38">
-        <v>277025</v>
-      </c>
       <c r="Q38">
         <v>13.8</v>
       </c>
@@ -3845,9 +3842,9 @@
         <v>698</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -3891,9 +3888,6 @@
       <c r="O39">
         <v>0</v>
       </c>
-      <c r="P39">
-        <v>277025</v>
-      </c>
       <c r="Q39">
         <v>14</v>
       </c>
@@ -3931,9 +3925,9 @@
         <v>897</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -3977,9 +3971,6 @@
       <c r="O40">
         <v>0</v>
       </c>
-      <c r="P40">
-        <v>277025</v>
-      </c>
       <c r="S40">
         <v>35.700000000000003</v>
       </c>
@@ -4002,9 +3993,9 @@
         <v>1040.5</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -4048,9 +4039,6 @@
       <c r="O41">
         <v>0</v>
       </c>
-      <c r="P41">
-        <v>277025</v>
-      </c>
       <c r="Q41">
         <v>12.8</v>
       </c>
@@ -4088,9 +4076,9 @@
         <v>1163.5</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -4134,9 +4122,6 @@
       <c r="O42">
         <v>0</v>
       </c>
-      <c r="P42">
-        <v>277025</v>
-      </c>
       <c r="Q42">
         <v>13.5</v>
       </c>
@@ -4174,9 +4159,9 @@
         <v>899.5</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -4220,9 +4205,6 @@
       <c r="O43">
         <v>0</v>
       </c>
-      <c r="P43">
-        <v>277025</v>
-      </c>
       <c r="Q43">
         <v>13.3</v>
       </c>
@@ -4260,9 +4242,9 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -4306,8 +4288,8 @@
       <c r="O44">
         <v>1</v>
       </c>
-      <c r="P44">
-        <v>325554</v>
+      <c r="P44" t="s">
+        <v>69</v>
       </c>
       <c r="Q44">
         <v>14.2</v>
@@ -4346,9 +4328,9 @@
         <v>740</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -4392,8 +4374,8 @@
       <c r="O45">
         <v>1</v>
       </c>
-      <c r="P45">
-        <v>325554</v>
+      <c r="P45" t="s">
+        <v>69</v>
       </c>
       <c r="Q45">
         <v>14.2</v>
@@ -4432,9 +4414,9 @@
         <v>896.5</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -4478,8 +4460,8 @@
       <c r="O46">
         <v>1</v>
       </c>
-      <c r="P46">
-        <v>325554</v>
+      <c r="P46" t="s">
+        <v>69</v>
       </c>
       <c r="Q46">
         <v>13.6</v>
@@ -4518,9 +4500,9 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -4564,8 +4546,8 @@
       <c r="O47">
         <v>1</v>
       </c>
-      <c r="P47">
-        <v>325554</v>
+      <c r="P47" t="s">
+        <v>69</v>
       </c>
       <c r="Q47">
         <v>13.1</v>
@@ -4604,9 +4586,9 @@
         <v>1149.5</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -4650,8 +4632,8 @@
       <c r="O48">
         <v>1</v>
       </c>
-      <c r="P48">
-        <v>325554</v>
+      <c r="P48" t="s">
+        <v>69</v>
       </c>
       <c r="Q48">
         <v>13.5</v>
@@ -4690,9 +4672,9 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -4736,8 +4718,8 @@
       <c r="O49">
         <v>1</v>
       </c>
-      <c r="P49">
-        <v>325554</v>
+      <c r="P49" t="s">
+        <v>69</v>
       </c>
       <c r="Q49">
         <v>13.4</v>
@@ -4776,9 +4758,9 @@
         <v>1499.5</v>
       </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -4818,9 +4800,6 @@
       </c>
       <c r="O50">
         <v>0</v>
-      </c>
-      <c r="P50">
-        <v>2700000</v>
       </c>
       <c r="Q50">
         <v>10.3</v>
@@ -4859,9 +4838,9 @@
         <v>842</v>
       </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -4901,9 +4880,6 @@
       </c>
       <c r="O51">
         <v>0</v>
-      </c>
-      <c r="P51">
-        <v>2700000</v>
       </c>
       <c r="Q51">
         <v>10.199999999999999</v>
@@ -4942,9 +4918,9 @@
         <v>1107.5</v>
       </c>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -4984,9 +4960,6 @@
       </c>
       <c r="O52">
         <v>0</v>
-      </c>
-      <c r="P52">
-        <v>2700000</v>
       </c>
       <c r="S52">
         <v>31.1</v>
@@ -5013,9 +4986,9 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -5055,9 +5028,6 @@
       </c>
       <c r="O53">
         <v>0</v>
-      </c>
-      <c r="P53">
-        <v>2700000</v>
       </c>
       <c r="Q53">
         <v>8.9</v>
@@ -5096,9 +5066,9 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -5138,9 +5108,6 @@
       </c>
       <c r="O54">
         <v>0</v>
-      </c>
-      <c r="P54">
-        <v>2700000</v>
       </c>
       <c r="Q54">
         <v>9.6999999999999993</v>
@@ -5179,9 +5146,9 @@
         <v>1002.5</v>
       </c>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -5221,9 +5188,6 @@
       </c>
       <c r="O55">
         <v>0</v>
-      </c>
-      <c r="P55">
-        <v>2700000</v>
       </c>
       <c r="Q55">
         <v>9.3000000000000007</v>
@@ -5262,9 +5226,9 @@
         <v>1617.5</v>
       </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -5308,9 +5272,6 @@
       <c r="O56">
         <v>0</v>
       </c>
-      <c r="P56">
-        <v>557145</v>
-      </c>
       <c r="Q56">
         <v>14.3</v>
       </c>
@@ -5348,9 +5309,9 @@
         <v>832</v>
       </c>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -5394,9 +5355,6 @@
       <c r="O57">
         <v>0</v>
       </c>
-      <c r="P57">
-        <v>557145</v>
-      </c>
       <c r="Q57">
         <v>13.9</v>
       </c>
@@ -5434,9 +5392,9 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -5480,9 +5438,6 @@
       <c r="O58">
         <v>0</v>
       </c>
-      <c r="P58">
-        <v>557145</v>
-      </c>
       <c r="Q58">
         <v>13.3</v>
       </c>
@@ -5520,9 +5475,9 @@
         <v>1011.5</v>
       </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -5566,9 +5521,6 @@
       <c r="O59">
         <v>0</v>
       </c>
-      <c r="P59">
-        <v>557145</v>
-      </c>
       <c r="Q59">
         <v>13.2</v>
       </c>
@@ -5606,9 +5558,9 @@
         <v>1124.5</v>
       </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -5652,9 +5604,6 @@
       <c r="O60">
         <v>0</v>
       </c>
-      <c r="P60">
-        <v>557145</v>
-      </c>
       <c r="Q60">
         <v>13.9</v>
       </c>
@@ -5692,9 +5641,9 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -5738,9 +5687,6 @@
       <c r="O61">
         <v>0</v>
       </c>
-      <c r="P61">
-        <v>557145</v>
-      </c>
       <c r="Q61">
         <v>13.6</v>
       </c>
@@ -5778,9 +5724,9 @@
         <v>1383.5</v>
       </c>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -5824,8 +5770,8 @@
       <c r="O62">
         <v>1</v>
       </c>
-      <c r="P62">
-        <v>32422</v>
+      <c r="P62" t="s">
+        <v>70</v>
       </c>
       <c r="Q62">
         <v>14.2</v>
@@ -5864,9 +5810,9 @@
         <v>740</v>
       </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -5910,8 +5856,8 @@
       <c r="O63">
         <v>1</v>
       </c>
-      <c r="P63">
-        <v>32422</v>
+      <c r="P63" t="s">
+        <v>70</v>
       </c>
       <c r="Q63">
         <v>14.2</v>
@@ -5950,9 +5896,9 @@
         <v>896.5</v>
       </c>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -5996,8 +5942,8 @@
       <c r="O64">
         <v>1</v>
       </c>
-      <c r="P64">
-        <v>32422</v>
+      <c r="P64" t="s">
+        <v>70</v>
       </c>
       <c r="Q64">
         <v>13.6</v>
@@ -6036,9 +5982,9 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -6082,8 +6028,8 @@
       <c r="O65">
         <v>1</v>
       </c>
-      <c r="P65">
-        <v>32422</v>
+      <c r="P65" t="s">
+        <v>70</v>
       </c>
       <c r="Q65">
         <v>13.1</v>
@@ -6122,9 +6068,9 @@
         <v>1149.5</v>
       </c>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -6168,8 +6114,8 @@
       <c r="O66">
         <v>1</v>
       </c>
-      <c r="P66">
-        <v>32422</v>
+      <c r="P66" t="s">
+        <v>70</v>
       </c>
       <c r="Q66">
         <v>13.5</v>
@@ -6208,9 +6154,9 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -6254,8 +6200,8 @@
       <c r="O67">
         <v>1</v>
       </c>
-      <c r="P67">
-        <v>32422</v>
+      <c r="P67" t="s">
+        <v>70</v>
       </c>
       <c r="Q67">
         <v>13.4</v>
@@ -6294,9 +6240,9 @@
         <v>1499.5</v>
       </c>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -6337,9 +6283,6 @@
       <c r="O68">
         <v>0</v>
       </c>
-      <c r="P68">
-        <v>1188979</v>
-      </c>
       <c r="Q68">
         <v>13.5</v>
       </c>
@@ -6377,9 +6320,9 @@
         <v>788</v>
       </c>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -6420,9 +6363,6 @@
       <c r="O69">
         <v>0</v>
       </c>
-      <c r="P69">
-        <v>1188979</v>
-      </c>
       <c r="Q69">
         <v>13.6</v>
       </c>
@@ -6460,9 +6400,9 @@
         <v>915.5</v>
       </c>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -6503,9 +6443,6 @@
       <c r="O70">
         <v>0</v>
       </c>
-      <c r="P70">
-        <v>1188979</v>
-      </c>
       <c r="Q70">
         <v>12.8</v>
       </c>
@@ -6543,9 +6480,9 @@
         <v>951</v>
       </c>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -6586,9 +6523,6 @@
       <c r="O71">
         <v>0</v>
       </c>
-      <c r="P71">
-        <v>1188979</v>
-      </c>
       <c r="Q71">
         <v>12.8</v>
       </c>
@@ -6626,9 +6560,9 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -6669,9 +6603,6 @@
       <c r="O72">
         <v>0</v>
       </c>
-      <c r="P72">
-        <v>1188979</v>
-      </c>
       <c r="Q72">
         <v>13.6</v>
       </c>
@@ -6709,9 +6640,9 @@
         <v>931.5</v>
       </c>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -6752,9 +6683,6 @@
       <c r="O73">
         <v>0</v>
       </c>
-      <c r="P73">
-        <v>1188979</v>
-      </c>
       <c r="Q73">
         <v>13.5</v>
       </c>
@@ -6792,9 +6720,9 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -6838,9 +6766,6 @@
       <c r="O74">
         <v>0</v>
       </c>
-      <c r="P74">
-        <v>951052</v>
-      </c>
       <c r="Q74">
         <v>13.7</v>
       </c>
@@ -6878,9 +6803,9 @@
         <v>836</v>
       </c>
     </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -6924,9 +6849,6 @@
       <c r="O75">
         <v>0</v>
       </c>
-      <c r="P75">
-        <v>951052</v>
-      </c>
       <c r="Q75">
         <v>14</v>
       </c>
@@ -6964,9 +6886,9 @@
         <v>962</v>
       </c>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -7010,9 +6932,6 @@
       <c r="O76">
         <v>0</v>
       </c>
-      <c r="P76">
-        <v>951052</v>
-      </c>
       <c r="Q76">
         <v>13.3</v>
       </c>
@@ -7050,9 +6969,9 @@
         <v>886</v>
       </c>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -7096,9 +7015,6 @@
       <c r="O77">
         <v>0</v>
       </c>
-      <c r="P77">
-        <v>951052</v>
-      </c>
       <c r="Q77">
         <v>13.6</v>
       </c>
@@ -7136,9 +7052,9 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -7182,9 +7098,6 @@
       <c r="O78">
         <v>0</v>
       </c>
-      <c r="P78">
-        <v>951052</v>
-      </c>
       <c r="Q78">
         <v>14.3</v>
       </c>
@@ -7222,9 +7135,9 @@
         <v>909.5</v>
       </c>
     </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -7268,9 +7181,6 @@
       <c r="O79">
         <v>0</v>
       </c>
-      <c r="P79">
-        <v>951052</v>
-      </c>
       <c r="Q79">
         <v>14</v>
       </c>
@@ -7308,9 +7218,9 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -7351,9 +7261,6 @@
       <c r="O80">
         <v>0</v>
       </c>
-      <c r="P80">
-        <v>1074090</v>
-      </c>
       <c r="Q80">
         <v>12.7</v>
       </c>
@@ -7391,9 +7298,9 @@
         <v>708</v>
       </c>
     </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -7434,9 +7341,6 @@
       <c r="O81">
         <v>0</v>
       </c>
-      <c r="P81">
-        <v>1074090</v>
-      </c>
       <c r="Q81">
         <v>12.9</v>
       </c>
@@ -7474,9 +7378,9 @@
         <v>759</v>
       </c>
     </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -7517,9 +7421,6 @@
       <c r="O82">
         <v>0</v>
       </c>
-      <c r="P82">
-        <v>1074090</v>
-      </c>
       <c r="Q82">
         <v>12.1</v>
       </c>
@@ -7557,9 +7458,9 @@
         <v>846.5</v>
       </c>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -7600,9 +7501,6 @@
       <c r="O83">
         <v>0</v>
       </c>
-      <c r="P83">
-        <v>1074090</v>
-      </c>
       <c r="Q83">
         <v>11.9</v>
       </c>
@@ -7640,9 +7538,9 @@
         <v>814.5</v>
       </c>
     </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -7683,9 +7581,6 @@
       <c r="O84">
         <v>0</v>
       </c>
-      <c r="P84">
-        <v>1074090</v>
-      </c>
       <c r="Q84">
         <v>12.5</v>
       </c>
@@ -7723,9 +7618,9 @@
         <v>674.5</v>
       </c>
     </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -7766,9 +7661,6 @@
       <c r="O85">
         <v>0</v>
       </c>
-      <c r="P85">
-        <v>1074090</v>
-      </c>
       <c r="Q85">
         <v>12.3</v>
       </c>
@@ -7806,9 +7698,9 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -7852,8 +7744,8 @@
       <c r="O86">
         <v>1</v>
       </c>
-      <c r="P86">
-        <v>72162</v>
+      <c r="P86" t="s">
+        <v>71</v>
       </c>
       <c r="Q86">
         <v>12.3</v>
@@ -7892,9 +7784,9 @@
         <v>881</v>
       </c>
     </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -7938,8 +7830,8 @@
       <c r="O87">
         <v>1</v>
       </c>
-      <c r="P87">
-        <v>72162</v>
+      <c r="P87" t="s">
+        <v>71</v>
       </c>
       <c r="Q87">
         <v>12.5</v>
@@ -7978,9 +7870,9 @@
         <v>989</v>
       </c>
     </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -8024,8 +7916,8 @@
       <c r="O88">
         <v>1</v>
       </c>
-      <c r="P88">
-        <v>72162</v>
+      <c r="P88" t="s">
+        <v>71</v>
       </c>
       <c r="Q88">
         <v>11.7</v>
@@ -8061,9 +7953,9 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -8107,8 +7999,8 @@
       <c r="O89">
         <v>1</v>
       </c>
-      <c r="P89">
-        <v>72162</v>
+      <c r="P89" t="s">
+        <v>71</v>
       </c>
       <c r="Q89">
         <v>11.7</v>
@@ -8147,9 +8039,9 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -8193,8 +8085,8 @@
       <c r="O90">
         <v>1</v>
       </c>
-      <c r="P90">
-        <v>72162</v>
+      <c r="P90" t="s">
+        <v>71</v>
       </c>
       <c r="Q90">
         <v>12.3</v>
@@ -8233,9 +8125,9 @@
         <v>992.5</v>
       </c>
     </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -8279,8 +8171,8 @@
       <c r="O91">
         <v>1</v>
       </c>
-      <c r="P91">
-        <v>72162</v>
+      <c r="P91" t="s">
+        <v>71</v>
       </c>
       <c r="Q91">
         <v>12.2</v>
@@ -8319,9 +8211,9 @@
         <v>1684.5</v>
       </c>
     </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -8365,8 +8257,8 @@
       <c r="O92">
         <v>1</v>
       </c>
-      <c r="P92">
-        <v>511049</v>
+      <c r="P92" t="s">
+        <v>72</v>
       </c>
       <c r="Q92">
         <v>12.9</v>
@@ -8405,9 +8297,9 @@
         <v>945.5</v>
       </c>
     </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -8451,8 +8343,8 @@
       <c r="O93">
         <v>1</v>
       </c>
-      <c r="P93">
-        <v>511049</v>
+      <c r="P93" t="s">
+        <v>72</v>
       </c>
       <c r="Q93">
         <v>13</v>
@@ -8491,9 +8383,9 @@
         <v>1202.5</v>
       </c>
     </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -8537,8 +8429,8 @@
       <c r="O94">
         <v>1</v>
       </c>
-      <c r="P94">
-        <v>511049</v>
+      <c r="P94" t="s">
+        <v>72</v>
       </c>
       <c r="Q94">
         <v>12.3</v>
@@ -8577,9 +8469,9 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="95" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -8623,8 +8515,8 @@
       <c r="O95">
         <v>1</v>
       </c>
-      <c r="P95">
-        <v>511049</v>
+      <c r="P95" t="s">
+        <v>72</v>
       </c>
       <c r="Q95">
         <v>12.3</v>
@@ -8663,9 +8555,9 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="96" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -8709,8 +8601,8 @@
       <c r="O96">
         <v>1</v>
       </c>
-      <c r="P96">
-        <v>511049</v>
+      <c r="P96" t="s">
+        <v>72</v>
       </c>
       <c r="Q96">
         <v>12.9</v>
@@ -8749,9 +8641,9 @@
         <v>1036.5999999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -8795,8 +8687,8 @@
       <c r="O97">
         <v>1</v>
       </c>
-      <c r="P97">
-        <v>511049</v>
+      <c r="P97" t="s">
+        <v>72</v>
       </c>
       <c r="Q97">
         <v>12.8</v>
@@ -8835,9 +8727,9 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="98" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -8881,9 +8773,6 @@
       <c r="O98">
         <v>0</v>
       </c>
-      <c r="P98">
-        <v>269759</v>
-      </c>
       <c r="Q98">
         <v>14.4</v>
       </c>
@@ -8921,9 +8810,9 @@
         <v>825</v>
       </c>
     </row>
-    <row r="99" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -8967,9 +8856,6 @@
       <c r="O99">
         <v>0</v>
       </c>
-      <c r="P99">
-        <v>269759</v>
-      </c>
       <c r="Q99">
         <v>14.7</v>
       </c>
@@ -9007,9 +8893,9 @@
         <v>992</v>
       </c>
     </row>
-    <row r="100" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -9053,9 +8939,6 @@
       <c r="O100">
         <v>0</v>
       </c>
-      <c r="P100">
-        <v>269759</v>
-      </c>
       <c r="Q100">
         <v>13.5</v>
       </c>
@@ -9093,9 +8976,9 @@
         <v>1198.5</v>
       </c>
     </row>
-    <row r="101" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -9139,9 +9022,6 @@
       <c r="O101">
         <v>0</v>
       </c>
-      <c r="P101">
-        <v>269759</v>
-      </c>
       <c r="Q101">
         <v>13.3</v>
       </c>
@@ -9179,9 +9059,9 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="102" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -9225,9 +9105,6 @@
       <c r="O102">
         <v>0</v>
       </c>
-      <c r="P102">
-        <v>269759</v>
-      </c>
       <c r="Q102">
         <v>13.9</v>
       </c>
@@ -9265,9 +9142,9 @@
         <v>988</v>
       </c>
     </row>
-    <row r="103" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -9311,9 +9188,6 @@
       <c r="O103">
         <v>0</v>
       </c>
-      <c r="P103">
-        <v>269759</v>
-      </c>
       <c r="Q103">
         <v>13.6</v>
       </c>
@@ -9351,9 +9225,9 @@
         <v>1607.5</v>
       </c>
     </row>
-    <row r="104" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -9397,8 +9271,8 @@
       <c r="O104">
         <v>1</v>
       </c>
-      <c r="P104">
-        <v>72854</v>
+      <c r="P104" t="s">
+        <v>73</v>
       </c>
       <c r="Q104">
         <v>13.9</v>
@@ -9437,9 +9311,9 @@
         <v>762</v>
       </c>
     </row>
-    <row r="105" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -9483,8 +9357,8 @@
       <c r="O105">
         <v>1</v>
       </c>
-      <c r="P105">
-        <v>72854</v>
+      <c r="P105" t="s">
+        <v>73</v>
       </c>
       <c r="Q105">
         <v>14.2</v>
@@ -9523,9 +9397,9 @@
         <v>991</v>
       </c>
     </row>
-    <row r="106" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -9569,8 +9443,8 @@
       <c r="O106">
         <v>1</v>
       </c>
-      <c r="P106">
-        <v>72854</v>
+      <c r="P106" t="s">
+        <v>73</v>
       </c>
       <c r="Q106">
         <v>13.5</v>
@@ -9609,9 +9483,9 @@
         <v>1237.5</v>
       </c>
     </row>
-    <row r="107" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -9655,8 +9529,8 @@
       <c r="O107">
         <v>1</v>
       </c>
-      <c r="P107">
-        <v>72854</v>
+      <c r="P107" t="s">
+        <v>73</v>
       </c>
       <c r="Q107">
         <v>13.5</v>
@@ -9695,9 +9569,9 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="108" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -9741,8 +9615,8 @@
       <c r="O108">
         <v>1</v>
       </c>
-      <c r="P108">
-        <v>72854</v>
+      <c r="P108" t="s">
+        <v>73</v>
       </c>
       <c r="Q108">
         <v>14.2</v>
@@ -9781,9 +9655,9 @@
         <v>935.5</v>
       </c>
     </row>
-    <row r="109" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -9827,8 +9701,8 @@
       <c r="O109">
         <v>1</v>
       </c>
-      <c r="P109">
-        <v>72854</v>
+      <c r="P109" t="s">
+        <v>73</v>
       </c>
       <c r="Q109">
         <v>13.9</v>
@@ -9867,9 +9741,9 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="110" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -9913,9 +9787,6 @@
       <c r="O110">
         <v>0</v>
       </c>
-      <c r="P110">
-        <v>471290</v>
-      </c>
       <c r="Q110">
         <v>12.8</v>
       </c>
@@ -9953,9 +9824,9 @@
         <v>1081.5</v>
       </c>
     </row>
-    <row r="111" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -9999,9 +9870,6 @@
       <c r="O111">
         <v>0</v>
       </c>
-      <c r="P111">
-        <v>471290</v>
-      </c>
       <c r="Q111">
         <v>12.9</v>
       </c>
@@ -10039,9 +9907,9 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="112" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -10085,9 +9953,6 @@
       <c r="O112">
         <v>0</v>
       </c>
-      <c r="P112">
-        <v>471290</v>
-      </c>
       <c r="Q112">
         <v>12.4</v>
       </c>
@@ -10125,9 +9990,9 @@
         <v>1264.5</v>
       </c>
     </row>
-    <row r="113" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -10171,9 +10036,6 @@
       <c r="O113">
         <v>0</v>
       </c>
-      <c r="P113">
-        <v>471290</v>
-      </c>
       <c r="Q113">
         <v>12.3</v>
       </c>
@@ -10211,9 +10073,9 @@
         <v>1400.5</v>
       </c>
     </row>
-    <row r="114" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -10257,9 +10119,6 @@
       <c r="O114">
         <v>0</v>
       </c>
-      <c r="P114">
-        <v>471290</v>
-      </c>
       <c r="Q114">
         <v>13</v>
       </c>
@@ -10297,9 +10156,9 @@
         <v>1058.5</v>
       </c>
     </row>
-    <row r="115" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -10343,9 +10202,6 @@
       <c r="O115">
         <v>0</v>
       </c>
-      <c r="P115">
-        <v>471290</v>
-      </c>
       <c r="Q115">
         <v>13.1</v>
       </c>
@@ -10383,9 +10239,9 @@
         <v>1820.5</v>
       </c>
     </row>
-    <row r="116" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -10429,9 +10285,6 @@
       <c r="O116">
         <v>0</v>
       </c>
-      <c r="P116">
-        <v>417075</v>
-      </c>
       <c r="Q116">
         <v>13.3</v>
       </c>
@@ -10469,9 +10322,9 @@
         <v>914</v>
       </c>
     </row>
-    <row r="117" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -10515,9 +10368,6 @@
       <c r="O117">
         <v>0</v>
       </c>
-      <c r="P117">
-        <v>417075</v>
-      </c>
       <c r="Q117">
         <v>13.6</v>
       </c>
@@ -10555,9 +10405,9 @@
         <v>977</v>
       </c>
     </row>
-    <row r="118" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -10601,9 +10451,6 @@
       <c r="O118">
         <v>0</v>
       </c>
-      <c r="P118">
-        <v>417075</v>
-      </c>
       <c r="Q118">
         <v>12.8</v>
       </c>
@@ -10641,9 +10488,9 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="119" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -10687,9 +10534,6 @@
       <c r="O119">
         <v>0</v>
       </c>
-      <c r="P119">
-        <v>417075</v>
-      </c>
       <c r="Q119">
         <v>12.8</v>
       </c>
@@ -10727,9 +10571,9 @@
         <v>1247.5</v>
       </c>
     </row>
-    <row r="120" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -10773,9 +10617,6 @@
       <c r="O120">
         <v>0</v>
       </c>
-      <c r="P120">
-        <v>417075</v>
-      </c>
       <c r="Q120">
         <v>13.3</v>
       </c>
@@ -10813,9 +10654,9 @@
         <v>955</v>
       </c>
     </row>
-    <row r="121" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -10859,9 +10700,6 @@
       <c r="O121">
         <v>0</v>
       </c>
-      <c r="P121">
-        <v>417075</v>
-      </c>
       <c r="Q121">
         <v>13.2</v>
       </c>
@@ -10899,9 +10737,9 @@
         <v>1581.5</v>
       </c>
     </row>
-    <row r="122" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -10945,8 +10783,8 @@
       <c r="O122">
         <v>1</v>
       </c>
-      <c r="P122">
-        <v>425147</v>
+      <c r="P122" t="s">
+        <v>74</v>
       </c>
       <c r="Q122">
         <v>13.9</v>
@@ -10985,9 +10823,9 @@
         <v>665.5</v>
       </c>
     </row>
-    <row r="123" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -11031,8 +10869,8 @@
       <c r="O123">
         <v>1</v>
       </c>
-      <c r="P123">
-        <v>425147</v>
+      <c r="P123" t="s">
+        <v>74</v>
       </c>
       <c r="Q123">
         <v>14</v>
@@ -11071,9 +10909,9 @@
         <v>948.5</v>
       </c>
     </row>
-    <row r="124" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -11117,8 +10955,8 @@
       <c r="O124">
         <v>1</v>
       </c>
-      <c r="P124">
-        <v>425147</v>
+      <c r="P124" t="s">
+        <v>74</v>
       </c>
       <c r="Q124">
         <v>13.2</v>
@@ -11154,9 +10992,9 @@
         <v>1057.5</v>
       </c>
     </row>
-    <row r="125" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -11200,8 +11038,8 @@
       <c r="O125">
         <v>1</v>
       </c>
-      <c r="P125">
-        <v>425147</v>
+      <c r="P125" t="s">
+        <v>74</v>
       </c>
       <c r="Q125">
         <v>13.1</v>
@@ -11240,9 +11078,9 @@
         <v>1149.5</v>
       </c>
     </row>
-    <row r="126" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -11286,8 +11124,8 @@
       <c r="O126">
         <v>1</v>
       </c>
-      <c r="P126">
-        <v>425147</v>
+      <c r="P126" t="s">
+        <v>74</v>
       </c>
       <c r="Q126">
         <v>13.9</v>
@@ -11326,9 +11164,9 @@
         <v>811.5</v>
       </c>
     </row>
-    <row r="127" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -11372,8 +11210,8 @@
       <c r="O127">
         <v>1</v>
       </c>
-      <c r="P127">
-        <v>425147</v>
+      <c r="P127" t="s">
+        <v>74</v>
       </c>
       <c r="Q127">
         <v>13.6</v>
@@ -11412,9 +11250,9 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="128" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -11455,13 +11293,13 @@
       <c r="O128">
         <v>1</v>
       </c>
-      <c r="P128">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="129" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="P128" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="129" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -11502,13 +11340,13 @@
       <c r="O129">
         <v>1</v>
       </c>
-      <c r="P129">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="130" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="P129" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="130" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -11549,13 +11387,13 @@
       <c r="O130">
         <v>1</v>
       </c>
-      <c r="P130">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="131" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="P130" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="131" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -11596,13 +11434,13 @@
       <c r="O131">
         <v>1</v>
       </c>
-      <c r="P131">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="132" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="P131" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="132" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -11643,13 +11481,13 @@
       <c r="O132">
         <v>1</v>
       </c>
-      <c r="P132">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="133" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="P132" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="133" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -11690,13 +11528,13 @@
       <c r="O133">
         <v>1</v>
       </c>
-      <c r="P133">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="134" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="P133" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="134" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -11740,8 +11578,8 @@
       <c r="O134">
         <v>1</v>
       </c>
-      <c r="P134">
-        <v>1225441</v>
+      <c r="P134" t="s">
+        <v>76</v>
       </c>
       <c r="Q134">
         <v>13.1</v>
@@ -11780,9 +11618,9 @@
         <v>741</v>
       </c>
     </row>
-    <row r="135" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -11826,8 +11664,8 @@
       <c r="O135">
         <v>1</v>
       </c>
-      <c r="P135">
-        <v>1225441</v>
+      <c r="P135" t="s">
+        <v>76</v>
       </c>
       <c r="Q135">
         <v>13.4</v>
@@ -11866,9 +11704,9 @@
         <v>997</v>
       </c>
     </row>
-    <row r="136" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -11912,8 +11750,8 @@
       <c r="O136">
         <v>1</v>
       </c>
-      <c r="P136">
-        <v>1225441</v>
+      <c r="P136" t="s">
+        <v>76</v>
       </c>
       <c r="Q136">
         <v>12.6</v>
@@ -11952,9 +11790,9 @@
         <v>1134.5</v>
       </c>
     </row>
-    <row r="137" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -11998,8 +11836,8 @@
       <c r="O137">
         <v>1</v>
       </c>
-      <c r="P137">
-        <v>1225441</v>
+      <c r="P137" t="s">
+        <v>76</v>
       </c>
       <c r="Q137">
         <v>12.5</v>
@@ -12038,9 +11876,9 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="138" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -12084,8 +11922,8 @@
       <c r="O138">
         <v>1</v>
       </c>
-      <c r="P138">
-        <v>1225441</v>
+      <c r="P138" t="s">
+        <v>76</v>
       </c>
       <c r="Q138">
         <v>13.2</v>
@@ -12124,9 +11962,9 @@
         <v>864</v>
       </c>
     </row>
-    <row r="139" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -12170,8 +12008,8 @@
       <c r="O139">
         <v>1</v>
       </c>
-      <c r="P139">
-        <v>1225441</v>
+      <c r="P139" t="s">
+        <v>76</v>
       </c>
       <c r="Q139">
         <v>12.9</v>
@@ -12210,9 +12048,9 @@
         <v>1603.5</v>
       </c>
     </row>
-    <row r="140" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -12256,8 +12094,8 @@
       <c r="O140">
         <v>1</v>
       </c>
-      <c r="P140">
-        <v>471627</v>
+      <c r="P140" t="s">
+        <v>77</v>
       </c>
       <c r="Q140">
         <v>14.4</v>
@@ -12296,9 +12134,9 @@
         <v>825</v>
       </c>
     </row>
-    <row r="141" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -12342,8 +12180,8 @@
       <c r="O141">
         <v>1</v>
       </c>
-      <c r="P141">
-        <v>471627</v>
+      <c r="P141" t="s">
+        <v>77</v>
       </c>
       <c r="Q141">
         <v>14.7</v>
@@ -12382,9 +12220,9 @@
         <v>992</v>
       </c>
     </row>
-    <row r="142" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -12428,8 +12266,8 @@
       <c r="O142">
         <v>1</v>
       </c>
-      <c r="P142">
-        <v>471627</v>
+      <c r="P142" t="s">
+        <v>77</v>
       </c>
       <c r="Q142">
         <v>13.5</v>
@@ -12468,9 +12306,9 @@
         <v>1198.5</v>
       </c>
     </row>
-    <row r="143" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -12514,8 +12352,8 @@
       <c r="O143">
         <v>1</v>
       </c>
-      <c r="P143">
-        <v>471627</v>
+      <c r="P143" t="s">
+        <v>77</v>
       </c>
       <c r="Q143">
         <v>13.3</v>
@@ -12554,9 +12392,9 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="144" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -12600,8 +12438,8 @@
       <c r="O144">
         <v>1</v>
       </c>
-      <c r="P144">
-        <v>471627</v>
+      <c r="P144" t="s">
+        <v>77</v>
       </c>
       <c r="Q144">
         <v>13.9</v>
@@ -12640,9 +12478,9 @@
         <v>988</v>
       </c>
     </row>
-    <row r="145" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -12686,8 +12524,8 @@
       <c r="O145">
         <v>1</v>
       </c>
-      <c r="P145">
-        <v>471627</v>
+      <c r="P145" t="s">
+        <v>77</v>
       </c>
       <c r="Q145">
         <v>13.6</v>
@@ -12726,9 +12564,9 @@
         <v>1607.5</v>
       </c>
     </row>
-    <row r="146" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -12772,9 +12610,6 @@
       <c r="O146">
         <v>0</v>
       </c>
-      <c r="P146">
-        <v>502866</v>
-      </c>
       <c r="Q146">
         <v>14.3</v>
       </c>
@@ -12812,9 +12647,9 @@
         <v>791</v>
       </c>
     </row>
-    <row r="147" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -12858,9 +12693,6 @@
       <c r="O147">
         <v>0</v>
       </c>
-      <c r="P147">
-        <v>502866</v>
-      </c>
       <c r="Q147">
         <v>14.6</v>
       </c>
@@ -12898,9 +12730,9 @@
         <v>951.5</v>
       </c>
     </row>
-    <row r="148" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -12944,9 +12776,6 @@
       <c r="O148">
         <v>0</v>
       </c>
-      <c r="P148">
-        <v>502866</v>
-      </c>
       <c r="Q148">
         <v>14</v>
       </c>
@@ -12984,9 +12813,9 @@
         <v>1207.5</v>
       </c>
     </row>
-    <row r="149" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -13030,9 +12859,6 @@
       <c r="O149">
         <v>0</v>
       </c>
-      <c r="P149">
-        <v>502866</v>
-      </c>
       <c r="Q149">
         <v>13.9</v>
       </c>
@@ -13070,9 +12896,9 @@
         <v>1297.5</v>
       </c>
     </row>
-    <row r="150" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -13116,9 +12942,6 @@
       <c r="O150">
         <v>0</v>
       </c>
-      <c r="P150">
-        <v>502866</v>
-      </c>
       <c r="Q150">
         <v>14.5</v>
       </c>
@@ -13156,9 +12979,9 @@
         <v>976</v>
       </c>
     </row>
-    <row r="151" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -13202,9 +13025,6 @@
       <c r="O151">
         <v>0</v>
       </c>
-      <c r="P151">
-        <v>502866</v>
-      </c>
       <c r="Q151">
         <v>14.2</v>
       </c>
@@ -13242,9 +13062,9 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="152" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -13288,8 +13108,8 @@
       <c r="O152">
         <v>0</v>
       </c>
-      <c r="P152">
-        <v>108505</v>
+      <c r="P152" t="s">
+        <v>78</v>
       </c>
       <c r="Q152">
         <v>13.7</v>
@@ -13328,9 +13148,9 @@
         <v>809</v>
       </c>
     </row>
-    <row r="153" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A153" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -13374,8 +13194,8 @@
       <c r="O153">
         <v>0</v>
       </c>
-      <c r="P153">
-        <v>108505</v>
+      <c r="P153" t="s">
+        <v>78</v>
       </c>
       <c r="Q153">
         <v>13.4</v>
@@ -13414,9 +13234,9 @@
         <v>1120.5</v>
       </c>
     </row>
-    <row r="154" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A154" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -13460,8 +13280,8 @@
       <c r="O154">
         <v>0</v>
       </c>
-      <c r="P154">
-        <v>108505</v>
+      <c r="P154" t="s">
+        <v>78</v>
       </c>
       <c r="Q154">
         <v>12.7</v>
@@ -13500,9 +13320,9 @@
         <v>1256.5</v>
       </c>
     </row>
-    <row r="155" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A155" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -13546,8 +13366,8 @@
       <c r="O155">
         <v>0</v>
       </c>
-      <c r="P155">
-        <v>108505</v>
+      <c r="P155" t="s">
+        <v>78</v>
       </c>
       <c r="Q155">
         <v>12.6</v>
@@ -13586,9 +13406,9 @@
         <v>1461.5</v>
       </c>
     </row>
-    <row r="156" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A156" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -13632,8 +13452,8 @@
       <c r="O156">
         <v>0</v>
       </c>
-      <c r="P156">
-        <v>108505</v>
+      <c r="P156" t="s">
+        <v>78</v>
       </c>
       <c r="Q156">
         <v>13.3</v>
@@ -13672,9 +13492,9 @@
         <v>928.5</v>
       </c>
     </row>
-    <row r="157" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A157" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -13718,8 +13538,8 @@
       <c r="O157">
         <v>0</v>
       </c>
-      <c r="P157">
-        <v>108505</v>
+      <c r="P157" t="s">
+        <v>78</v>
       </c>
       <c r="Q157">
         <v>12</v>
@@ -13758,9 +13578,9 @@
         <v>1762.5</v>
       </c>
     </row>
-    <row r="158" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A158" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -13801,13 +13621,13 @@
       <c r="O158">
         <v>1</v>
       </c>
-      <c r="P158">
-        <v>890389</v>
-      </c>
-    </row>
-    <row r="159" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="P158" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="159" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A159" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -13848,13 +13668,13 @@
       <c r="O159">
         <v>1</v>
       </c>
-      <c r="P159">
-        <v>890389</v>
-      </c>
-    </row>
-    <row r="160" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="P159" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="160" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A160" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -13895,13 +13715,13 @@
       <c r="O160">
         <v>1</v>
       </c>
-      <c r="P160">
-        <v>890389</v>
-      </c>
-    </row>
-    <row r="161" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="P160" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="161" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -13942,13 +13762,13 @@
       <c r="O161">
         <v>1</v>
       </c>
-      <c r="P161">
-        <v>890389</v>
-      </c>
-    </row>
-    <row r="162" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="P161" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="162" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A162" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -13989,13 +13809,13 @@
       <c r="O162">
         <v>1</v>
       </c>
-      <c r="P162">
-        <v>890389</v>
-      </c>
-    </row>
-    <row r="163" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="P162" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="163" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A163" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -14036,13 +13856,13 @@
       <c r="O163">
         <v>1</v>
       </c>
-      <c r="P163">
-        <v>890389</v>
-      </c>
-    </row>
-    <row r="164" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="P163" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="164" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A164" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -14086,8 +13906,8 @@
       <c r="O164">
         <v>1</v>
       </c>
-      <c r="P164">
-        <v>188215</v>
+      <c r="P164" t="s">
+        <v>80</v>
       </c>
       <c r="Q164">
         <v>14.4</v>
@@ -14126,9 +13946,9 @@
         <v>793</v>
       </c>
     </row>
-    <row r="165" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A165" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -14172,8 +13992,8 @@
       <c r="O165">
         <v>1</v>
       </c>
-      <c r="P165">
-        <v>188215</v>
+      <c r="P165" t="s">
+        <v>80</v>
       </c>
       <c r="Q165">
         <v>14.6</v>
@@ -14212,9 +14032,9 @@
         <v>929</v>
       </c>
     </row>
-    <row r="166" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A166" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -14258,8 +14078,8 @@
       <c r="O166">
         <v>1</v>
       </c>
-      <c r="P166">
-        <v>188215</v>
+      <c r="P166" t="s">
+        <v>80</v>
       </c>
       <c r="Q166">
         <v>13.9</v>
@@ -14298,9 +14118,9 @@
         <v>1117.5</v>
       </c>
     </row>
-    <row r="167" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A167" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -14344,8 +14164,8 @@
       <c r="O167">
         <v>1</v>
       </c>
-      <c r="P167">
-        <v>188215</v>
+      <c r="P167" t="s">
+        <v>80</v>
       </c>
       <c r="Q167">
         <v>13.8</v>
@@ -14384,9 +14204,9 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="168" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A168" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -14430,8 +14250,8 @@
       <c r="O168">
         <v>1</v>
       </c>
-      <c r="P168">
-        <v>188215</v>
+      <c r="P168" t="s">
+        <v>80</v>
       </c>
       <c r="Q168">
         <v>14.5</v>
@@ -14470,9 +14290,9 @@
         <v>997</v>
       </c>
     </row>
-    <row r="169" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A169" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -14516,8 +14336,8 @@
       <c r="O169">
         <v>1</v>
       </c>
-      <c r="P169">
-        <v>188215</v>
+      <c r="P169" t="s">
+        <v>80</v>
       </c>
       <c r="Q169">
         <v>14.2</v>
@@ -14556,9 +14376,9 @@
         <v>1605.5</v>
       </c>
     </row>
-    <row r="170" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A170" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -14599,9 +14419,6 @@
       <c r="O170">
         <v>0</v>
       </c>
-      <c r="P170">
-        <v>159048</v>
-      </c>
       <c r="Q170">
         <v>13.7</v>
       </c>
@@ -14639,9 +14456,9 @@
         <v>836</v>
       </c>
     </row>
-    <row r="171" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A171" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -14682,9 +14499,6 @@
       <c r="O171">
         <v>0</v>
       </c>
-      <c r="P171">
-        <v>159048</v>
-      </c>
       <c r="Q171">
         <v>14</v>
       </c>
@@ -14722,9 +14536,9 @@
         <v>962</v>
       </c>
     </row>
-    <row r="172" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A172" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -14765,9 +14579,6 @@
       <c r="O172">
         <v>0</v>
       </c>
-      <c r="P172">
-        <v>159048</v>
-      </c>
       <c r="Q172">
         <v>13.3</v>
       </c>
@@ -14805,9 +14616,9 @@
         <v>886</v>
       </c>
     </row>
-    <row r="173" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A173" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -14848,9 +14659,6 @@
       <c r="O173">
         <v>0</v>
       </c>
-      <c r="P173">
-        <v>159048</v>
-      </c>
       <c r="Q173">
         <v>13.6</v>
       </c>
@@ -14888,9 +14696,9 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="174" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A174" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -14934,9 +14742,6 @@
       <c r="O174">
         <v>0</v>
       </c>
-      <c r="P174">
-        <v>159048</v>
-      </c>
       <c r="Q174">
         <v>14.3</v>
       </c>
@@ -14974,9 +14779,9 @@
         <v>909.5</v>
       </c>
     </row>
-    <row r="175" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A175" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -15020,9 +14825,6 @@
       <c r="O175">
         <v>0</v>
       </c>
-      <c r="P175">
-        <v>159048</v>
-      </c>
       <c r="Q175">
         <v>14</v>
       </c>
@@ -15060,9 +14862,9 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="176" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A176" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -15106,9 +14908,6 @@
       <c r="O176">
         <v>0</v>
       </c>
-      <c r="P176">
-        <v>148088</v>
-      </c>
       <c r="Q176">
         <v>13.9</v>
       </c>
@@ -15146,9 +14945,9 @@
         <v>665.5</v>
       </c>
     </row>
-    <row r="177" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A177" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -15192,9 +14991,6 @@
       <c r="O177">
         <v>0</v>
       </c>
-      <c r="P177">
-        <v>148088</v>
-      </c>
       <c r="Q177">
         <v>14</v>
       </c>
@@ -15232,9 +15028,9 @@
         <v>948.5</v>
       </c>
     </row>
-    <row r="178" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A178" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -15278,9 +15074,6 @@
       <c r="O178">
         <v>0</v>
       </c>
-      <c r="P178">
-        <v>148088</v>
-      </c>
       <c r="Q178">
         <v>13.2</v>
       </c>
@@ -15315,9 +15108,9 @@
         <v>1057.5</v>
       </c>
     </row>
-    <row r="179" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A179" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -15361,9 +15154,6 @@
       <c r="O179">
         <v>0</v>
       </c>
-      <c r="P179">
-        <v>148088</v>
-      </c>
       <c r="Q179">
         <v>13.1</v>
       </c>
@@ -15401,9 +15191,9 @@
         <v>1149.5</v>
       </c>
     </row>
-    <row r="180" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A180" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -15447,9 +15237,6 @@
       <c r="O180">
         <v>0</v>
       </c>
-      <c r="P180">
-        <v>148088</v>
-      </c>
       <c r="Q180">
         <v>13.9</v>
       </c>
@@ -15487,9 +15274,9 @@
         <v>811.5</v>
       </c>
     </row>
-    <row r="181" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A181" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -15533,9 +15320,6 @@
       <c r="O181">
         <v>0</v>
       </c>
-      <c r="P181">
-        <v>148088</v>
-      </c>
       <c r="Q181">
         <v>13.6</v>
       </c>
@@ -15573,9 +15357,9 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="182" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A182" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B182">
         <v>1</v>
@@ -15619,9 +15403,6 @@
       <c r="O182">
         <v>0</v>
       </c>
-      <c r="P182">
-        <v>25400</v>
-      </c>
       <c r="Q182">
         <v>14.4</v>
       </c>
@@ -15659,9 +15440,9 @@
         <v>799</v>
       </c>
     </row>
-    <row r="183" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A183" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -15705,9 +15486,6 @@
       <c r="O183">
         <v>0</v>
       </c>
-      <c r="P183">
-        <v>25400</v>
-      </c>
       <c r="Q183">
         <v>14.6</v>
       </c>
@@ -15745,9 +15523,9 @@
         <v>981.5</v>
       </c>
     </row>
-    <row r="184" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A184" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -15791,9 +15569,6 @@
       <c r="O184">
         <v>0</v>
       </c>
-      <c r="P184">
-        <v>25400</v>
-      </c>
       <c r="Q184">
         <v>13.7</v>
       </c>
@@ -15831,9 +15606,9 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="185" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A185" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -15877,9 +15652,6 @@
       <c r="O185">
         <v>0</v>
       </c>
-      <c r="P185">
-        <v>25400</v>
-      </c>
       <c r="Q185">
         <v>13.7</v>
       </c>
@@ -15917,9 +15689,9 @@
         <v>1154.5</v>
       </c>
     </row>
-    <row r="186" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A186" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -15963,9 +15735,6 @@
       <c r="O186">
         <v>0</v>
       </c>
-      <c r="P186">
-        <v>25400</v>
-      </c>
       <c r="Q186">
         <v>14.4</v>
       </c>
@@ -16003,9 +15772,9 @@
         <v>911.5</v>
       </c>
     </row>
-    <row r="187" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A187" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -16049,9 +15818,6 @@
       <c r="O187">
         <v>0</v>
       </c>
-      <c r="P187">
-        <v>25400</v>
-      </c>
       <c r="Q187">
         <v>14.1</v>
       </c>
@@ -16089,9 +15855,9 @@
         <v>1490.5</v>
       </c>
     </row>
-    <row r="188" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A188" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -16135,8 +15901,8 @@
       <c r="O188">
         <v>1</v>
       </c>
-      <c r="P188">
-        <v>75403</v>
+      <c r="P188" t="s">
+        <v>81</v>
       </c>
       <c r="Q188">
         <v>14.5</v>
@@ -16175,9 +15941,9 @@
         <v>804.5</v>
       </c>
     </row>
-    <row r="189" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -16221,8 +15987,8 @@
       <c r="O189">
         <v>1</v>
       </c>
-      <c r="P189">
-        <v>75403</v>
+      <c r="P189" t="s">
+        <v>81</v>
       </c>
       <c r="Q189">
         <v>14.7</v>
@@ -16261,9 +16027,9 @@
         <v>883.5</v>
       </c>
     </row>
-    <row r="190" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -16307,8 +16073,8 @@
       <c r="O190">
         <v>1</v>
       </c>
-      <c r="P190">
-        <v>75403</v>
+      <c r="P190" t="s">
+        <v>81</v>
       </c>
       <c r="Q190">
         <v>14</v>
@@ -16347,9 +16113,9 @@
         <v>1084.5</v>
       </c>
     </row>
-    <row r="191" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -16393,8 +16159,8 @@
       <c r="O191">
         <v>1</v>
       </c>
-      <c r="P191">
-        <v>75403</v>
+      <c r="P191" t="s">
+        <v>81</v>
       </c>
       <c r="Q191">
         <v>14</v>
@@ -16433,9 +16199,9 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="192" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -16479,8 +16245,8 @@
       <c r="O192">
         <v>1</v>
       </c>
-      <c r="P192">
-        <v>75403</v>
+      <c r="P192" t="s">
+        <v>81</v>
       </c>
       <c r="Q192">
         <v>14.6</v>
@@ -16519,9 +16285,9 @@
         <v>934.5</v>
       </c>
     </row>
-    <row r="193" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B193">
         <v>0</v>
@@ -16565,8 +16331,8 @@
       <c r="O193">
         <v>1</v>
       </c>
-      <c r="P193">
-        <v>75403</v>
+      <c r="P193" t="s">
+        <v>81</v>
       </c>
       <c r="Q193">
         <v>14.2</v>
@@ -16605,9 +16371,9 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="194" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -16651,9 +16417,6 @@
       <c r="O194">
         <v>0</v>
       </c>
-      <c r="P194">
-        <v>214364</v>
-      </c>
       <c r="Q194">
         <v>14.5</v>
       </c>
@@ -16691,9 +16454,9 @@
         <v>804.5</v>
       </c>
     </row>
-    <row r="195" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B195">
         <v>0</v>
@@ -16737,9 +16500,6 @@
       <c r="O195">
         <v>0</v>
       </c>
-      <c r="P195">
-        <v>214364</v>
-      </c>
       <c r="Q195">
         <v>14.7</v>
       </c>
@@ -16777,9 +16537,9 @@
         <v>883.5</v>
       </c>
     </row>
-    <row r="196" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B196">
         <v>0</v>
@@ -16823,9 +16583,6 @@
       <c r="O196">
         <v>0</v>
       </c>
-      <c r="P196">
-        <v>214364</v>
-      </c>
       <c r="Q196">
         <v>14</v>
       </c>
@@ -16863,9 +16620,9 @@
         <v>1084.5</v>
       </c>
     </row>
-    <row r="197" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B197">
         <v>0</v>
@@ -16909,9 +16666,6 @@
       <c r="O197">
         <v>0</v>
       </c>
-      <c r="P197">
-        <v>214364</v>
-      </c>
       <c r="Q197">
         <v>14</v>
       </c>
@@ -16949,9 +16703,9 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="198" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B198">
         <v>0</v>
@@ -16995,9 +16749,6 @@
       <c r="O198">
         <v>0</v>
       </c>
-      <c r="P198">
-        <v>214364</v>
-      </c>
       <c r="Q198">
         <v>14.6</v>
       </c>
@@ -17035,9 +16786,9 @@
         <v>934.5</v>
       </c>
     </row>
-    <row r="199" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B199">
         <v>0</v>
@@ -17081,9 +16832,6 @@
       <c r="O199">
         <v>0</v>
       </c>
-      <c r="P199">
-        <v>214364</v>
-      </c>
       <c r="Q199">
         <v>14.2</v>
       </c>
@@ -17121,9 +16869,9 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="200" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -17167,9 +16915,6 @@
       <c r="O200">
         <v>0</v>
       </c>
-      <c r="P200">
-        <v>911863</v>
-      </c>
       <c r="Q200">
         <v>14.3</v>
       </c>
@@ -17207,9 +16952,9 @@
         <v>793.5</v>
       </c>
     </row>
-    <row r="201" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B201">
         <v>0</v>
@@ -17253,9 +16998,6 @@
       <c r="O201">
         <v>0</v>
       </c>
-      <c r="P201">
-        <v>911863</v>
-      </c>
       <c r="Q201">
         <v>14.4</v>
       </c>
@@ -17293,9 +17035,9 @@
         <v>846.5</v>
       </c>
     </row>
-    <row r="202" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B202">
         <v>0</v>
@@ -17339,9 +17081,6 @@
       <c r="O202">
         <v>0</v>
       </c>
-      <c r="P202">
-        <v>911863</v>
-      </c>
       <c r="Q202">
         <v>13.7</v>
       </c>
@@ -17379,9 +17118,9 @@
         <v>951.5</v>
       </c>
     </row>
-    <row r="203" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B203">
         <v>0</v>
@@ -17425,9 +17164,6 @@
       <c r="O203">
         <v>0</v>
       </c>
-      <c r="P203">
-        <v>911863</v>
-      </c>
       <c r="Q203">
         <v>13.7</v>
       </c>
@@ -17465,9 +17201,9 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="204" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B204">
         <v>0</v>
@@ -17511,9 +17247,6 @@
       <c r="O204">
         <v>0</v>
       </c>
-      <c r="P204">
-        <v>911863</v>
-      </c>
       <c r="Q204">
         <v>14.3</v>
       </c>
@@ -17551,9 +17284,9 @@
         <v>934</v>
       </c>
     </row>
-    <row r="205" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B205">
         <v>0</v>
@@ -17597,9 +17330,6 @@
       <c r="O205">
         <v>0</v>
       </c>
-      <c r="P205">
-        <v>911863</v>
-      </c>
       <c r="Q205">
         <v>13.9</v>
       </c>
@@ -17637,9 +17367,9 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="206" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -17683,9 +17413,6 @@
       <c r="O206">
         <v>0</v>
       </c>
-      <c r="P206">
-        <v>1255005</v>
-      </c>
       <c r="Q206">
         <v>12</v>
       </c>
@@ -17723,9 +17450,9 @@
         <v>680</v>
       </c>
     </row>
-    <row r="207" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B207">
         <v>0</v>
@@ -17769,9 +17496,6 @@
       <c r="O207">
         <v>0</v>
       </c>
-      <c r="P207">
-        <v>1255005</v>
-      </c>
       <c r="Q207">
         <v>12</v>
       </c>
@@ -17809,9 +17533,9 @@
         <v>867</v>
       </c>
     </row>
-    <row r="208" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B208">
         <v>0</v>
@@ -17855,9 +17579,6 @@
       <c r="O208">
         <v>0</v>
       </c>
-      <c r="P208">
-        <v>1255005</v>
-      </c>
       <c r="S208">
         <v>34</v>
       </c>
@@ -17883,9 +17604,9 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="209" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B209">
         <v>0</v>
@@ -17929,9 +17650,6 @@
       <c r="O209">
         <v>0</v>
       </c>
-      <c r="P209">
-        <v>1255005</v>
-      </c>
       <c r="Q209">
         <v>11.2</v>
       </c>
@@ -17969,9 +17687,9 @@
         <v>1324.5</v>
       </c>
     </row>
-    <row r="210" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B210">
         <v>0</v>
@@ -18015,9 +17733,6 @@
       <c r="O210">
         <v>0</v>
       </c>
-      <c r="P210">
-        <v>1255005</v>
-      </c>
       <c r="Q210">
         <v>11.7</v>
       </c>
@@ -18055,9 +17770,9 @@
         <v>958</v>
       </c>
     </row>
-    <row r="211" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B211">
         <v>0</v>
@@ -18101,9 +17816,6 @@
       <c r="O211">
         <v>0</v>
       </c>
-      <c r="P211">
-        <v>1255005</v>
-      </c>
       <c r="Q211">
         <v>11.5</v>
       </c>
@@ -18138,9 +17850,9 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="212" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B212">
         <v>1</v>
@@ -18184,8 +17896,8 @@
       <c r="O212">
         <v>1</v>
       </c>
-      <c r="P212">
-        <v>168334</v>
+      <c r="P212" t="s">
+        <v>82</v>
       </c>
       <c r="Q212">
         <v>13.7</v>
@@ -18224,9 +17936,9 @@
         <v>809</v>
       </c>
     </row>
-    <row r="213" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B213">
         <v>0</v>
@@ -18270,8 +17982,8 @@
       <c r="O213">
         <v>1</v>
       </c>
-      <c r="P213">
-        <v>168334</v>
+      <c r="P213" t="s">
+        <v>82</v>
       </c>
       <c r="Q213">
         <v>13.4</v>
@@ -18310,9 +18022,9 @@
         <v>1120.5</v>
       </c>
     </row>
-    <row r="214" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B214">
         <v>0</v>
@@ -18356,8 +18068,8 @@
       <c r="O214">
         <v>1</v>
       </c>
-      <c r="P214">
-        <v>168334</v>
+      <c r="P214" t="s">
+        <v>82</v>
       </c>
       <c r="Q214">
         <v>12.7</v>
@@ -18396,9 +18108,9 @@
         <v>1256.5</v>
       </c>
     </row>
-    <row r="215" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B215">
         <v>0</v>
@@ -18442,8 +18154,8 @@
       <c r="O215">
         <v>1</v>
       </c>
-      <c r="P215">
-        <v>168334</v>
+      <c r="P215" t="s">
+        <v>82</v>
       </c>
       <c r="Q215">
         <v>12.6</v>
@@ -18482,9 +18194,9 @@
         <v>1461.5</v>
       </c>
     </row>
-    <row r="216" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B216">
         <v>0</v>
@@ -18528,8 +18240,8 @@
       <c r="O216">
         <v>1</v>
       </c>
-      <c r="P216">
-        <v>168334</v>
+      <c r="P216" t="s">
+        <v>82</v>
       </c>
       <c r="Q216">
         <v>13.3</v>
@@ -18568,9 +18280,9 @@
         <v>928.5</v>
       </c>
     </row>
-    <row r="217" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B217">
         <v>0</v>
@@ -18614,8 +18326,8 @@
       <c r="O217">
         <v>1</v>
       </c>
-      <c r="P217">
-        <v>168334</v>
+      <c r="P217" t="s">
+        <v>82</v>
       </c>
       <c r="Q217">
         <v>12</v>
@@ -18654,9 +18366,9 @@
         <v>1762.5</v>
       </c>
     </row>
-    <row r="218" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -18700,8 +18412,8 @@
       <c r="O218">
         <v>1</v>
       </c>
-      <c r="P218">
-        <v>337023</v>
+      <c r="P218" t="s">
+        <v>83</v>
       </c>
       <c r="Q218">
         <v>12.7</v>
@@ -18740,9 +18452,9 @@
         <v>708</v>
       </c>
     </row>
-    <row r="219" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B219">
         <v>0</v>
@@ -18786,8 +18498,8 @@
       <c r="O219">
         <v>1</v>
       </c>
-      <c r="P219">
-        <v>337023</v>
+      <c r="P219" t="s">
+        <v>83</v>
       </c>
       <c r="Q219">
         <v>12.9</v>
@@ -18826,9 +18538,9 @@
         <v>759</v>
       </c>
     </row>
-    <row r="220" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B220">
         <v>0</v>
@@ -18872,8 +18584,8 @@
       <c r="O220">
         <v>1</v>
       </c>
-      <c r="P220">
-        <v>337023</v>
+      <c r="P220" t="s">
+        <v>83</v>
       </c>
       <c r="Q220">
         <v>12.1</v>
@@ -18912,9 +18624,9 @@
         <v>846.5</v>
       </c>
     </row>
-    <row r="221" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B221">
         <v>0</v>
@@ -18958,8 +18670,8 @@
       <c r="O221">
         <v>1</v>
       </c>
-      <c r="P221">
-        <v>337023</v>
+      <c r="P221" t="s">
+        <v>83</v>
       </c>
       <c r="Q221">
         <v>11.9</v>
@@ -18998,9 +18710,9 @@
         <v>814.5</v>
       </c>
     </row>
-    <row r="222" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B222">
         <v>0</v>
@@ -19044,8 +18756,8 @@
       <c r="O222">
         <v>1</v>
       </c>
-      <c r="P222">
-        <v>337023</v>
+      <c r="P222" t="s">
+        <v>83</v>
       </c>
       <c r="Q222">
         <v>12.5</v>
@@ -19084,9 +18796,9 @@
         <v>674.5</v>
       </c>
     </row>
-    <row r="223" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B223">
         <v>0</v>
@@ -19130,8 +18842,8 @@
       <c r="O223">
         <v>1</v>
       </c>
-      <c r="P223">
-        <v>337023</v>
+      <c r="P223" t="s">
+        <v>83</v>
       </c>
       <c r="Q223">
         <v>12.3</v>
@@ -19170,9 +18882,9 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="224" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B224">
         <v>1</v>
@@ -19216,8 +18928,8 @@
       <c r="O224">
         <v>1</v>
       </c>
-      <c r="P224">
-        <v>332338</v>
+      <c r="P224" t="s">
+        <v>84</v>
       </c>
       <c r="Q224">
         <v>12.7</v>
@@ -19256,9 +18968,9 @@
         <v>708</v>
       </c>
     </row>
-    <row r="225" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B225">
         <v>0</v>
@@ -19302,8 +19014,8 @@
       <c r="O225">
         <v>1</v>
       </c>
-      <c r="P225">
-        <v>332338</v>
+      <c r="P225" t="s">
+        <v>84</v>
       </c>
       <c r="Q225">
         <v>12.9</v>
@@ -19342,9 +19054,9 @@
         <v>759</v>
       </c>
     </row>
-    <row r="226" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B226">
         <v>0</v>
@@ -19388,8 +19100,8 @@
       <c r="O226">
         <v>1</v>
       </c>
-      <c r="P226">
-        <v>332338</v>
+      <c r="P226" t="s">
+        <v>84</v>
       </c>
       <c r="Q226">
         <v>12.1</v>
@@ -19428,9 +19140,9 @@
         <v>846.5</v>
       </c>
     </row>
-    <row r="227" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B227">
         <v>0</v>
@@ -19474,8 +19186,8 @@
       <c r="O227">
         <v>1</v>
       </c>
-      <c r="P227">
-        <v>332338</v>
+      <c r="P227" t="s">
+        <v>84</v>
       </c>
       <c r="Q227">
         <v>11.9</v>
@@ -19514,9 +19226,9 @@
         <v>814.5</v>
       </c>
     </row>
-    <row r="228" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B228">
         <v>0</v>
@@ -19560,8 +19272,8 @@
       <c r="O228">
         <v>1</v>
       </c>
-      <c r="P228">
-        <v>332338</v>
+      <c r="P228" t="s">
+        <v>84</v>
       </c>
       <c r="Q228">
         <v>12.5</v>
@@ -19600,9 +19312,9 @@
         <v>674.5</v>
       </c>
     </row>
-    <row r="229" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B229">
         <v>0</v>
@@ -19646,8 +19358,8 @@
       <c r="O229">
         <v>1</v>
       </c>
-      <c r="P229">
-        <v>332338</v>
+      <c r="P229" t="s">
+        <v>84</v>
       </c>
       <c r="Q229">
         <v>12.3</v>
@@ -19686,9 +19398,9 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="230" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B230">
         <v>1</v>
@@ -19732,8 +19444,8 @@
       <c r="O230">
         <v>1</v>
       </c>
-      <c r="P230">
-        <v>230558</v>
+      <c r="P230" t="s">
+        <v>85</v>
       </c>
       <c r="Q230">
         <v>12.7</v>
@@ -19772,9 +19484,9 @@
         <v>708</v>
       </c>
     </row>
-    <row r="231" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B231">
         <v>0</v>
@@ -19818,8 +19530,8 @@
       <c r="O231">
         <v>1</v>
       </c>
-      <c r="P231">
-        <v>230558</v>
+      <c r="P231" t="s">
+        <v>85</v>
       </c>
       <c r="Q231">
         <v>12.9</v>
@@ -19858,9 +19570,9 @@
         <v>759</v>
       </c>
     </row>
-    <row r="232" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B232">
         <v>0</v>
@@ -19904,8 +19616,8 @@
       <c r="O232">
         <v>1</v>
       </c>
-      <c r="P232">
-        <v>230558</v>
+      <c r="P232" t="s">
+        <v>85</v>
       </c>
       <c r="Q232">
         <v>12.1</v>
@@ -19944,9 +19656,9 @@
         <v>846.5</v>
       </c>
     </row>
-    <row r="233" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B233">
         <v>0</v>
@@ -19990,8 +19702,8 @@
       <c r="O233">
         <v>1</v>
       </c>
-      <c r="P233">
-        <v>230558</v>
+      <c r="P233" t="s">
+        <v>85</v>
       </c>
       <c r="Q233">
         <v>11.9</v>
@@ -20030,9 +19742,9 @@
         <v>814.5</v>
       </c>
     </row>
-    <row r="234" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B234">
         <v>0</v>
@@ -20076,8 +19788,8 @@
       <c r="O234">
         <v>1</v>
       </c>
-      <c r="P234">
-        <v>230558</v>
+      <c r="P234" t="s">
+        <v>85</v>
       </c>
       <c r="Q234">
         <v>12.5</v>
@@ -20116,9 +19828,9 @@
         <v>674.5</v>
       </c>
     </row>
-    <row r="235" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B235">
         <v>0</v>
@@ -20162,8 +19874,8 @@
       <c r="O235">
         <v>1</v>
       </c>
-      <c r="P235">
-        <v>230558</v>
+      <c r="P235" t="s">
+        <v>85</v>
       </c>
       <c r="Q235">
         <v>12.3</v>
@@ -20202,9 +19914,9 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="236" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B236">
         <v>1</v>
@@ -20248,9 +19960,6 @@
       <c r="O236">
         <v>1</v>
       </c>
-      <c r="P236">
-        <v>907222</v>
-      </c>
       <c r="Q236">
         <v>14.2</v>
       </c>
@@ -20288,9 +19997,9 @@
         <v>883</v>
       </c>
     </row>
-    <row r="237" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B237">
         <v>0</v>
@@ -20334,9 +20043,6 @@
       <c r="O237">
         <v>1</v>
       </c>
-      <c r="P237">
-        <v>907222</v>
-      </c>
       <c r="Q237">
         <v>14.3</v>
       </c>
@@ -20374,9 +20080,9 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="238" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B238">
         <v>0</v>
@@ -20420,9 +20126,6 @@
       <c r="O238">
         <v>1</v>
       </c>
-      <c r="P238">
-        <v>907222</v>
-      </c>
       <c r="Q238">
         <v>13.6</v>
       </c>
@@ -20460,9 +20163,9 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="239" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B239">
         <v>0</v>
@@ -20506,9 +20209,6 @@
       <c r="O239">
         <v>1</v>
       </c>
-      <c r="P239">
-        <v>907222</v>
-      </c>
       <c r="Q239">
         <v>13.6</v>
       </c>
@@ -20546,9 +20246,9 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="240" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B240">
         <v>0</v>
@@ -20592,9 +20292,6 @@
       <c r="O240">
         <v>1</v>
       </c>
-      <c r="P240">
-        <v>907222</v>
-      </c>
       <c r="Q240">
         <v>14.2</v>
       </c>
@@ -20632,9 +20329,9 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="241" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B241">
         <v>0</v>
@@ -20678,9 +20375,6 @@
       <c r="O241">
         <v>1</v>
       </c>
-      <c r="P241">
-        <v>907222</v>
-      </c>
       <c r="Q241">
         <v>14</v>
       </c>
@@ -20718,9 +20412,9 @@
         <v>1362.5</v>
       </c>
     </row>
-    <row r="242" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B242">
         <v>1</v>
@@ -20764,9 +20458,6 @@
       <c r="O242">
         <v>0</v>
       </c>
-      <c r="P242">
-        <v>164242</v>
-      </c>
       <c r="Q242">
         <v>13.9</v>
       </c>
@@ -20804,9 +20495,9 @@
         <v>808.5</v>
       </c>
     </row>
-    <row r="243" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B243">
         <v>0</v>
@@ -20850,9 +20541,6 @@
       <c r="O243">
         <v>0</v>
       </c>
-      <c r="P243">
-        <v>164242</v>
-      </c>
       <c r="Q243">
         <v>13.7</v>
       </c>
@@ -20890,9 +20578,9 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="244" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B244">
         <v>0</v>
@@ -20936,9 +20624,6 @@
       <c r="O244">
         <v>0</v>
       </c>
-      <c r="P244">
-        <v>164242</v>
-      </c>
       <c r="Q244">
         <v>12.9</v>
       </c>
@@ -20976,9 +20661,9 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="245" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B245">
         <v>0</v>
@@ -21022,9 +20707,6 @@
       <c r="O245">
         <v>0</v>
       </c>
-      <c r="P245">
-        <v>164242</v>
-      </c>
       <c r="Q245">
         <v>13</v>
       </c>
@@ -21062,9 +20744,9 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="246" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B246">
         <v>0</v>
@@ -21108,9 +20790,6 @@
       <c r="O246">
         <v>0</v>
       </c>
-      <c r="P246">
-        <v>164242</v>
-      </c>
       <c r="Q246">
         <v>13.6</v>
       </c>
@@ -21148,9 +20827,9 @@
         <v>1039.5</v>
       </c>
     </row>
-    <row r="247" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B247">
         <v>0</v>
@@ -21194,9 +20873,6 @@
       <c r="O247">
         <v>0</v>
       </c>
-      <c r="P247">
-        <v>164242</v>
-      </c>
       <c r="Q247">
         <v>13.6</v>
       </c>
@@ -21234,9 +20910,9 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="248" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B248">
         <v>1</v>
@@ -21280,8 +20956,8 @@
       <c r="O248">
         <v>1</v>
       </c>
-      <c r="P248">
-        <v>280410</v>
+      <c r="P248" t="s">
+        <v>86</v>
       </c>
       <c r="Q248">
         <v>12.7</v>
@@ -21320,9 +20996,9 @@
         <v>708</v>
       </c>
     </row>
-    <row r="249" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B249">
         <v>0</v>
@@ -21366,8 +21042,8 @@
       <c r="O249">
         <v>1</v>
       </c>
-      <c r="P249">
-        <v>280410</v>
+      <c r="P249" t="s">
+        <v>86</v>
       </c>
       <c r="Q249">
         <v>12.9</v>
@@ -21406,9 +21082,9 @@
         <v>759</v>
       </c>
     </row>
-    <row r="250" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B250">
         <v>0</v>
@@ -21452,8 +21128,8 @@
       <c r="O250">
         <v>1</v>
       </c>
-      <c r="P250">
-        <v>280410</v>
+      <c r="P250" t="s">
+        <v>86</v>
       </c>
       <c r="Q250">
         <v>12.1</v>
@@ -21492,9 +21168,9 @@
         <v>846.5</v>
       </c>
     </row>
-    <row r="251" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B251">
         <v>0</v>
@@ -21538,8 +21214,8 @@
       <c r="O251">
         <v>1</v>
       </c>
-      <c r="P251">
-        <v>280410</v>
+      <c r="P251" t="s">
+        <v>86</v>
       </c>
       <c r="Q251">
         <v>11.9</v>
@@ -21578,9 +21254,9 @@
         <v>814.5</v>
       </c>
     </row>
-    <row r="252" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B252">
         <v>0</v>
@@ -21624,8 +21300,8 @@
       <c r="O252">
         <v>1</v>
       </c>
-      <c r="P252">
-        <v>280410</v>
+      <c r="P252" t="s">
+        <v>86</v>
       </c>
       <c r="Q252">
         <v>12.5</v>
@@ -21664,9 +21340,9 @@
         <v>674.5</v>
       </c>
     </row>
-    <row r="253" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B253">
         <v>0</v>
@@ -21710,8 +21386,8 @@
       <c r="O253">
         <v>1</v>
       </c>
-      <c r="P253">
-        <v>280410</v>
+      <c r="P253" t="s">
+        <v>86</v>
       </c>
       <c r="Q253">
         <v>12.3</v>
@@ -21750,9 +21426,9 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="254" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B254">
         <v>1</v>
@@ -21796,9 +21472,6 @@
       <c r="O254">
         <v>0</v>
       </c>
-      <c r="P254">
-        <v>201638</v>
-      </c>
       <c r="Q254">
         <v>12.7</v>
       </c>
@@ -21836,9 +21509,9 @@
         <v>708</v>
       </c>
     </row>
-    <row r="255" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B255">
         <v>0</v>
@@ -21882,9 +21555,6 @@
       <c r="O255">
         <v>0</v>
       </c>
-      <c r="P255">
-        <v>201638</v>
-      </c>
       <c r="Q255">
         <v>12.9</v>
       </c>
@@ -21922,9 +21592,9 @@
         <v>759</v>
       </c>
     </row>
-    <row r="256" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B256">
         <v>0</v>
@@ -21968,9 +21638,6 @@
       <c r="O256">
         <v>0</v>
       </c>
-      <c r="P256">
-        <v>201638</v>
-      </c>
       <c r="Q256">
         <v>12.1</v>
       </c>
@@ -22008,9 +21675,9 @@
         <v>846.5</v>
       </c>
     </row>
-    <row r="257" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B257">
         <v>0</v>
@@ -22054,9 +21721,6 @@
       <c r="O257">
         <v>0</v>
       </c>
-      <c r="P257">
-        <v>201638</v>
-      </c>
       <c r="Q257">
         <v>11.9</v>
       </c>
@@ -22094,9 +21758,9 @@
         <v>814.5</v>
       </c>
     </row>
-    <row r="258" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B258">
         <v>0</v>
@@ -22140,9 +21804,6 @@
       <c r="O258">
         <v>0</v>
       </c>
-      <c r="P258">
-        <v>201638</v>
-      </c>
       <c r="Q258">
         <v>12.5</v>
       </c>
@@ -22180,9 +21841,9 @@
         <v>674.5</v>
       </c>
     </row>
-    <row r="259" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B259">
         <v>0</v>
@@ -22226,9 +21887,6 @@
       <c r="O259">
         <v>0</v>
       </c>
-      <c r="P259">
-        <v>201638</v>
-      </c>
       <c r="Q259">
         <v>12.3</v>
       </c>
@@ -22266,9 +21924,9 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="260" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B260">
         <v>1</v>
@@ -22309,8 +21967,8 @@
       <c r="O260">
         <v>1</v>
       </c>
-      <c r="P260">
-        <v>90803</v>
+      <c r="P260" t="s">
+        <v>87</v>
       </c>
       <c r="Q260">
         <v>13.9</v>
@@ -22349,9 +22007,9 @@
         <v>762</v>
       </c>
     </row>
-    <row r="261" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B261">
         <v>0</v>
@@ -22392,8 +22050,8 @@
       <c r="O261">
         <v>1</v>
       </c>
-      <c r="P261">
-        <v>90803</v>
+      <c r="P261" t="s">
+        <v>87</v>
       </c>
       <c r="Q261">
         <v>14.2</v>
@@ -22432,9 +22090,9 @@
         <v>991</v>
       </c>
     </row>
-    <row r="262" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B262">
         <v>0</v>
@@ -22475,8 +22133,8 @@
       <c r="O262">
         <v>1</v>
       </c>
-      <c r="P262">
-        <v>90803</v>
+      <c r="P262" t="s">
+        <v>87</v>
       </c>
       <c r="Q262">
         <v>13.5</v>
@@ -22515,9 +22173,9 @@
         <v>1237.5</v>
       </c>
     </row>
-    <row r="263" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B263">
         <v>0</v>
@@ -22558,8 +22216,8 @@
       <c r="O263">
         <v>1</v>
       </c>
-      <c r="P263">
-        <v>90803</v>
+      <c r="P263" t="s">
+        <v>87</v>
       </c>
       <c r="Q263">
         <v>13.5</v>
@@ -22598,9 +22256,9 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="264" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B264">
         <v>0</v>
@@ -22641,8 +22299,8 @@
       <c r="O264">
         <v>1</v>
       </c>
-      <c r="P264">
-        <v>90803</v>
+      <c r="P264" t="s">
+        <v>87</v>
       </c>
       <c r="Q264">
         <v>14.2</v>
@@ -22681,9 +22339,9 @@
         <v>935.5</v>
       </c>
     </row>
-    <row r="265" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B265">
         <v>0</v>
@@ -22724,8 +22382,8 @@
       <c r="O265">
         <v>1</v>
       </c>
-      <c r="P265">
-        <v>90803</v>
+      <c r="P265" t="s">
+        <v>87</v>
       </c>
       <c r="Q265">
         <v>13.9</v>
@@ -22764,9 +22422,9 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="266" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B266">
         <v>1</v>
@@ -22810,8 +22468,8 @@
       <c r="O266">
         <v>1</v>
       </c>
-      <c r="P266">
-        <v>103861</v>
+      <c r="P266" t="s">
+        <v>88</v>
       </c>
       <c r="Q266">
         <v>12.3</v>
@@ -22850,9 +22508,9 @@
         <v>881</v>
       </c>
     </row>
-    <row r="267" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B267">
         <v>0</v>
@@ -22896,8 +22554,8 @@
       <c r="O267">
         <v>1</v>
       </c>
-      <c r="P267">
-        <v>103861</v>
+      <c r="P267" t="s">
+        <v>88</v>
       </c>
       <c r="Q267">
         <v>12.5</v>
@@ -22936,9 +22594,9 @@
         <v>989</v>
       </c>
     </row>
-    <row r="268" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B268">
         <v>0</v>
@@ -22982,8 +22640,8 @@
       <c r="O268">
         <v>1</v>
       </c>
-      <c r="P268">
-        <v>103861</v>
+      <c r="P268" t="s">
+        <v>88</v>
       </c>
       <c r="Q268">
         <v>11.7</v>
@@ -23019,9 +22677,9 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="269" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A269" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B269">
         <v>0</v>
@@ -23065,8 +22723,8 @@
       <c r="O269">
         <v>1</v>
       </c>
-      <c r="P269">
-        <v>103861</v>
+      <c r="P269" t="s">
+        <v>88</v>
       </c>
       <c r="Q269">
         <v>11.7</v>
@@ -23105,9 +22763,9 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="270" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A270" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B270">
         <v>0</v>
@@ -23151,8 +22809,8 @@
       <c r="O270">
         <v>1</v>
       </c>
-      <c r="P270">
-        <v>103861</v>
+      <c r="P270" t="s">
+        <v>88</v>
       </c>
       <c r="Q270">
         <v>12.3</v>
@@ -23191,9 +22849,9 @@
         <v>992.5</v>
       </c>
     </row>
-    <row r="271" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B271">
         <v>0</v>
@@ -23237,8 +22895,8 @@
       <c r="O271">
         <v>1</v>
       </c>
-      <c r="P271">
-        <v>103861</v>
+      <c r="P271" t="s">
+        <v>88</v>
       </c>
       <c r="Q271">
         <v>12.2</v>

--- a/na0/연도더미미세먼지_04221106.xlsx
+++ b/na0/연도더미미세먼지_04221106.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haoin\Documents\GitHub\python_project\na0\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F894D00-8F9B-4BC3-9955-B3CA2C25F9A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="240" yWindow="732" windowWidth="22800" windowHeight="12228" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -221,7 +227,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -592,25 +598,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB271"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.5" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.875" customWidth="1"/>
-    <col min="14" max="14" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.69921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.8984375" customWidth="1"/>
+    <col min="14" max="14" width="12.59765625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -696,7 +701,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -779,7 +784,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -865,7 +870,7 @@
         <v>1005.5</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -948,7 +953,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1034,7 +1039,7 @@
         <v>1312.5</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1108,7 +1113,7 @@
         <v>981.5</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1194,7 +1199,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1280,7 +1285,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1366,7 +1371,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1452,7 +1457,7 @@
         <v>1198.5</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1538,7 +1543,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1624,7 +1629,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1710,7 +1715,7 @@
         <v>1607.5</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1796,7 +1801,7 @@
         <v>808.5</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1882,7 +1887,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -1968,7 +1973,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -2054,7 +2059,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -2140,7 +2145,7 @@
         <v>1039.5</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -2226,7 +2231,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -2312,7 +2317,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -2398,7 +2403,7 @@
         <v>951.5</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -2484,7 +2489,7 @@
         <v>1207.5</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -2570,7 +2575,7 @@
         <v>1297.5</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -2656,7 +2661,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -2742,7 +2747,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -2828,7 +2833,7 @@
         <v>861.5</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -2914,7 +2919,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -3000,7 +3005,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -3086,7 +3091,7 @@
         <v>1391.5</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -3172,7 +3177,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -3258,7 +3263,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -3344,7 +3349,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -3430,7 +3435,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -3501,7 +3506,7 @@
         <v>1040.5</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>14</v>
       </c>
@@ -3587,7 +3592,7 @@
         <v>1163.5</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>14</v>
       </c>
@@ -3673,7 +3678,7 @@
         <v>899.5</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -3759,7 +3764,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>15</v>
       </c>
@@ -3845,7 +3850,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>15</v>
       </c>
@@ -3931,7 +3936,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>15</v>
       </c>
@@ -4002,7 +4007,7 @@
         <v>1040.5</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>15</v>
       </c>
@@ -4088,7 +4093,7 @@
         <v>1163.5</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>15</v>
       </c>
@@ -4174,7 +4179,7 @@
         <v>899.5</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>15</v>
       </c>
@@ -4260,7 +4265,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>16</v>
       </c>
@@ -4346,7 +4351,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>16</v>
       </c>
@@ -4432,7 +4437,7 @@
         <v>896.5</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>16</v>
       </c>
@@ -4518,7 +4523,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>16</v>
       </c>
@@ -4604,7 +4609,7 @@
         <v>1149.5</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>16</v>
       </c>
@@ -4690,7 +4695,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>16</v>
       </c>
@@ -4776,7 +4781,7 @@
         <v>1499.5</v>
       </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>17</v>
       </c>
@@ -4859,7 +4864,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>17</v>
       </c>
@@ -4942,7 +4947,7 @@
         <v>1107.5</v>
       </c>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>17</v>
       </c>
@@ -5013,7 +5018,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>17</v>
       </c>
@@ -5096,7 +5101,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>17</v>
       </c>
@@ -5179,7 +5184,7 @@
         <v>1002.5</v>
       </c>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>17</v>
       </c>
@@ -5262,7 +5267,7 @@
         <v>1617.5</v>
       </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>18</v>
       </c>
@@ -5348,7 +5353,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>18</v>
       </c>
@@ -5434,7 +5439,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>18</v>
       </c>
@@ -5520,7 +5525,7 @@
         <v>1011.5</v>
       </c>
     </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>18</v>
       </c>
@@ -5606,7 +5611,7 @@
         <v>1124.5</v>
       </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>18</v>
       </c>
@@ -5692,7 +5697,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>18</v>
       </c>
@@ -5778,7 +5783,7 @@
         <v>1383.5</v>
       </c>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>19</v>
       </c>
@@ -5864,7 +5869,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>19</v>
       </c>
@@ -5950,7 +5955,7 @@
         <v>896.5</v>
       </c>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>19</v>
       </c>
@@ -6036,7 +6041,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>19</v>
       </c>
@@ -6122,7 +6127,7 @@
         <v>1149.5</v>
       </c>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>19</v>
       </c>
@@ -6208,7 +6213,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>19</v>
       </c>
@@ -6294,7 +6299,7 @@
         <v>1499.5</v>
       </c>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>20</v>
       </c>
@@ -6377,7 +6382,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>20</v>
       </c>
@@ -6460,7 +6465,7 @@
         <v>915.5</v>
       </c>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>20</v>
       </c>
@@ -6543,7 +6548,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>20</v>
       </c>
@@ -6626,7 +6631,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>20</v>
       </c>
@@ -6709,7 +6714,7 @@
         <v>931.5</v>
       </c>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>20</v>
       </c>
@@ -6792,7 +6797,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>21</v>
       </c>
@@ -6878,7 +6883,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>21</v>
       </c>
@@ -6964,7 +6969,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>21</v>
       </c>
@@ -7050,7 +7055,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>21</v>
       </c>
@@ -7136,7 +7141,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>21</v>
       </c>
@@ -7222,7 +7227,7 @@
         <v>909.5</v>
       </c>
     </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>21</v>
       </c>
@@ -7308,7 +7313,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>22</v>
       </c>
@@ -7391,7 +7396,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>22</v>
       </c>
@@ -7474,7 +7479,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>22</v>
       </c>
@@ -7557,7 +7562,7 @@
         <v>846.5</v>
       </c>
     </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>22</v>
       </c>
@@ -7640,7 +7645,7 @@
         <v>814.5</v>
       </c>
     </row>
-    <row r="84" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>22</v>
       </c>
@@ -7723,7 +7728,7 @@
         <v>674.5</v>
       </c>
     </row>
-    <row r="85" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>22</v>
       </c>
@@ -7806,7 +7811,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="86" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>23</v>
       </c>
@@ -7892,7 +7897,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>23</v>
       </c>
@@ -7978,7 +7983,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>23</v>
       </c>
@@ -8061,7 +8066,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>23</v>
       </c>
@@ -8147,7 +8152,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>23</v>
       </c>
@@ -8233,7 +8238,7 @@
         <v>992.5</v>
       </c>
     </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>23</v>
       </c>
@@ -8319,7 +8324,7 @@
         <v>1684.5</v>
       </c>
     </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>24</v>
       </c>
@@ -8405,7 +8410,7 @@
         <v>945.5</v>
       </c>
     </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>24</v>
       </c>
@@ -8491,7 +8496,7 @@
         <v>1202.5</v>
       </c>
     </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>24</v>
       </c>
@@ -8577,7 +8582,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="95" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>24</v>
       </c>
@@ -8663,7 +8668,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="96" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>24</v>
       </c>
@@ -8749,7 +8754,7 @@
         <v>1036.5999999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>24</v>
       </c>
@@ -8835,7 +8840,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="98" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>25</v>
       </c>
@@ -8921,7 +8926,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="99" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>25</v>
       </c>
@@ -9007,7 +9012,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="100" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>25</v>
       </c>
@@ -9093,7 +9098,7 @@
         <v>1198.5</v>
       </c>
     </row>
-    <row r="101" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>25</v>
       </c>
@@ -9179,7 +9184,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="102" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>25</v>
       </c>
@@ -9265,7 +9270,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="103" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>25</v>
       </c>
@@ -9351,7 +9356,7 @@
         <v>1607.5</v>
       </c>
     </row>
-    <row r="104" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>26</v>
       </c>
@@ -9437,7 +9442,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="105" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>26</v>
       </c>
@@ -9523,7 +9528,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="106" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>26</v>
       </c>
@@ -9609,7 +9614,7 @@
         <v>1237.5</v>
       </c>
     </row>
-    <row r="107" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>26</v>
       </c>
@@ -9695,7 +9700,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="108" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>26</v>
       </c>
@@ -9781,7 +9786,7 @@
         <v>935.5</v>
       </c>
     </row>
-    <row r="109" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>26</v>
       </c>
@@ -9867,7 +9872,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="110" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>27</v>
       </c>
@@ -9953,7 +9958,7 @@
         <v>1081.5</v>
       </c>
     </row>
-    <row r="111" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>27</v>
       </c>
@@ -10039,7 +10044,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="112" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>27</v>
       </c>
@@ -10125,7 +10130,7 @@
         <v>1264.5</v>
       </c>
     </row>
-    <row r="113" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>27</v>
       </c>
@@ -10211,7 +10216,7 @@
         <v>1400.5</v>
       </c>
     </row>
-    <row r="114" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>27</v>
       </c>
@@ -10297,7 +10302,7 @@
         <v>1058.5</v>
       </c>
     </row>
-    <row r="115" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>27</v>
       </c>
@@ -10383,7 +10388,7 @@
         <v>1820.5</v>
       </c>
     </row>
-    <row r="116" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>28</v>
       </c>
@@ -10469,7 +10474,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="117" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
         <v>28</v>
       </c>
@@ -10555,7 +10560,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="118" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
         <v>28</v>
       </c>
@@ -10641,7 +10646,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="119" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
         <v>28</v>
       </c>
@@ -10727,7 +10732,7 @@
         <v>1247.5</v>
       </c>
     </row>
-    <row r="120" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
         <v>28</v>
       </c>
@@ -10813,7 +10818,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="121" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>28</v>
       </c>
@@ -10899,7 +10904,7 @@
         <v>1581.5</v>
       </c>
     </row>
-    <row r="122" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
         <v>29</v>
       </c>
@@ -10985,7 +10990,7 @@
         <v>665.5</v>
       </c>
     </row>
-    <row r="123" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
         <v>29</v>
       </c>
@@ -11071,7 +11076,7 @@
         <v>948.5</v>
       </c>
     </row>
-    <row r="124" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
         <v>29</v>
       </c>
@@ -11154,7 +11159,7 @@
         <v>1057.5</v>
       </c>
     </row>
-    <row r="125" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
         <v>29</v>
       </c>
@@ -11240,7 +11245,7 @@
         <v>1149.5</v>
       </c>
     </row>
-    <row r="126" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
         <v>29</v>
       </c>
@@ -11326,7 +11331,7 @@
         <v>811.5</v>
       </c>
     </row>
-    <row r="127" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
         <v>29</v>
       </c>
@@ -11412,7 +11417,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="128" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
         <v>30</v>
       </c>
@@ -11459,7 +11464,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="129" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
         <v>30</v>
       </c>
@@ -11506,7 +11511,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="130" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
         <v>30</v>
       </c>
@@ -11553,7 +11558,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="131" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
         <v>30</v>
       </c>
@@ -11600,7 +11605,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="132" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
         <v>30</v>
       </c>
@@ -11647,7 +11652,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="133" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>30</v>
       </c>
@@ -11694,7 +11699,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="134" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
         <v>31</v>
       </c>
@@ -11780,7 +11785,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="135" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
         <v>31</v>
       </c>
@@ -11866,7 +11871,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="136" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>31</v>
       </c>
@@ -11952,7 +11957,7 @@
         <v>1134.5</v>
       </c>
     </row>
-    <row r="137" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
         <v>31</v>
       </c>
@@ -12038,7 +12043,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="138" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
         <v>31</v>
       </c>
@@ -12124,7 +12129,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="139" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
         <v>31</v>
       </c>
@@ -12210,7 +12215,7 @@
         <v>1603.5</v>
       </c>
     </row>
-    <row r="140" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
         <v>32</v>
       </c>
@@ -12296,7 +12301,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="141" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
         <v>32</v>
       </c>
@@ -12382,7 +12387,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="142" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
         <v>32</v>
       </c>
@@ -12468,7 +12473,7 @@
         <v>1198.5</v>
       </c>
     </row>
-    <row r="143" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
         <v>32</v>
       </c>
@@ -12554,7 +12559,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="144" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
         <v>32</v>
       </c>
@@ -12640,7 +12645,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="145" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
         <v>32</v>
       </c>
@@ -12726,7 +12731,7 @@
         <v>1607.5</v>
       </c>
     </row>
-    <row r="146" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
         <v>33</v>
       </c>
@@ -12812,7 +12817,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="147" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
         <v>33</v>
       </c>
@@ -12898,7 +12903,7 @@
         <v>951.5</v>
       </c>
     </row>
-    <row r="148" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
         <v>33</v>
       </c>
@@ -12984,7 +12989,7 @@
         <v>1207.5</v>
       </c>
     </row>
-    <row r="149" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
         <v>33</v>
       </c>
@@ -13070,7 +13075,7 @@
         <v>1297.5</v>
       </c>
     </row>
-    <row r="150" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
         <v>33</v>
       </c>
@@ -13156,7 +13161,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="151" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
         <v>33</v>
       </c>
@@ -13242,7 +13247,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="152" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
         <v>34</v>
       </c>
@@ -13328,7 +13333,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="153" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
         <v>34</v>
       </c>
@@ -13414,7 +13419,7 @@
         <v>1120.5</v>
       </c>
     </row>
-    <row r="154" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
         <v>34</v>
       </c>
@@ -13500,7 +13505,7 @@
         <v>1256.5</v>
       </c>
     </row>
-    <row r="155" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
         <v>34</v>
       </c>
@@ -13586,7 +13591,7 @@
         <v>1461.5</v>
       </c>
     </row>
-    <row r="156" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
         <v>34</v>
       </c>
@@ -13672,7 +13677,7 @@
         <v>928.5</v>
       </c>
     </row>
-    <row r="157" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
         <v>34</v>
       </c>
@@ -13758,7 +13763,7 @@
         <v>1762.5</v>
       </c>
     </row>
-    <row r="158" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
         <v>35</v>
       </c>
@@ -13805,7 +13810,7 @@
         <v>890389</v>
       </c>
     </row>
-    <row r="159" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
         <v>35</v>
       </c>
@@ -13852,7 +13857,7 @@
         <v>890389</v>
       </c>
     </row>
-    <row r="160" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
         <v>35</v>
       </c>
@@ -13899,7 +13904,7 @@
         <v>890389</v>
       </c>
     </row>
-    <row r="161" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
         <v>35</v>
       </c>
@@ -13946,7 +13951,7 @@
         <v>890389</v>
       </c>
     </row>
-    <row r="162" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
         <v>35</v>
       </c>
@@ -13993,7 +13998,7 @@
         <v>890389</v>
       </c>
     </row>
-    <row r="163" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
         <v>35</v>
       </c>
@@ -14040,7 +14045,7 @@
         <v>890389</v>
       </c>
     </row>
-    <row r="164" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
         <v>36</v>
       </c>
@@ -14126,7 +14131,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="165" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
         <v>36</v>
       </c>
@@ -14212,7 +14217,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="166" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
         <v>36</v>
       </c>
@@ -14298,7 +14303,7 @@
         <v>1117.5</v>
       </c>
     </row>
-    <row r="167" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
         <v>36</v>
       </c>
@@ -14384,7 +14389,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="168" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
         <v>36</v>
       </c>
@@ -14470,7 +14475,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="169" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
         <v>36</v>
       </c>
@@ -14556,7 +14561,7 @@
         <v>1605.5</v>
       </c>
     </row>
-    <row r="170" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
         <v>37</v>
       </c>
@@ -14639,7 +14644,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="171" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
         <v>37</v>
       </c>
@@ -14722,7 +14727,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="172" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
         <v>37</v>
       </c>
@@ -14805,7 +14810,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="173" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
         <v>37</v>
       </c>
@@ -14888,7 +14893,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="174" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
         <v>37</v>
       </c>
@@ -14974,7 +14979,7 @@
         <v>909.5</v>
       </c>
     </row>
-    <row r="175" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
         <v>37</v>
       </c>
@@ -15060,7 +15065,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="176" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
         <v>38</v>
       </c>
@@ -15146,7 +15151,7 @@
         <v>665.5</v>
       </c>
     </row>
-    <row r="177" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
         <v>38</v>
       </c>
@@ -15232,7 +15237,7 @@
         <v>948.5</v>
       </c>
     </row>
-    <row r="178" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
         <v>38</v>
       </c>
@@ -15315,7 +15320,7 @@
         <v>1057.5</v>
       </c>
     </row>
-    <row r="179" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
         <v>38</v>
       </c>
@@ -15401,7 +15406,7 @@
         <v>1149.5</v>
       </c>
     </row>
-    <row r="180" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
         <v>38</v>
       </c>
@@ -15487,7 +15492,7 @@
         <v>811.5</v>
       </c>
     </row>
-    <row r="181" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
         <v>38</v>
       </c>
@@ -15573,7 +15578,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="182" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
         <v>39</v>
       </c>
@@ -15659,7 +15664,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="183" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
         <v>39</v>
       </c>
@@ -15745,7 +15750,7 @@
         <v>981.5</v>
       </c>
     </row>
-    <row r="184" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
         <v>39</v>
       </c>
@@ -15831,7 +15836,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="185" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
         <v>39</v>
       </c>
@@ -15917,7 +15922,7 @@
         <v>1154.5</v>
       </c>
     </row>
-    <row r="186" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
         <v>39</v>
       </c>
@@ -16003,7 +16008,7 @@
         <v>911.5</v>
       </c>
     </row>
-    <row r="187" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A187" t="s">
         <v>39</v>
       </c>
@@ -16089,7 +16094,7 @@
         <v>1490.5</v>
       </c>
     </row>
-    <row r="188" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A188" t="s">
         <v>40</v>
       </c>
@@ -16175,7 +16180,7 @@
         <v>804.5</v>
       </c>
     </row>
-    <row r="189" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
         <v>40</v>
       </c>
@@ -16261,7 +16266,7 @@
         <v>883.5</v>
       </c>
     </row>
-    <row r="190" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
         <v>40</v>
       </c>
@@ -16347,7 +16352,7 @@
         <v>1084.5</v>
       </c>
     </row>
-    <row r="191" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
         <v>40</v>
       </c>
@@ -16433,7 +16438,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="192" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A192" t="s">
         <v>40</v>
       </c>
@@ -16519,7 +16524,7 @@
         <v>934.5</v>
       </c>
     </row>
-    <row r="193" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
         <v>40</v>
       </c>
@@ -16605,7 +16610,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="194" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
         <v>41</v>
       </c>
@@ -16691,7 +16696,7 @@
         <v>804.5</v>
       </c>
     </row>
-    <row r="195" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
         <v>41</v>
       </c>
@@ -16777,7 +16782,7 @@
         <v>883.5</v>
       </c>
     </row>
-    <row r="196" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
         <v>41</v>
       </c>
@@ -16863,7 +16868,7 @@
         <v>1084.5</v>
       </c>
     </row>
-    <row r="197" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
         <v>41</v>
       </c>
@@ -16949,7 +16954,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="198" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
         <v>41</v>
       </c>
@@ -17035,7 +17040,7 @@
         <v>934.5</v>
       </c>
     </row>
-    <row r="199" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
         <v>41</v>
       </c>
@@ -17121,7 +17126,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="200" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
         <v>42</v>
       </c>
@@ -17207,7 +17212,7 @@
         <v>793.5</v>
       </c>
     </row>
-    <row r="201" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
         <v>42</v>
       </c>
@@ -17293,7 +17298,7 @@
         <v>846.5</v>
       </c>
     </row>
-    <row r="202" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A202" t="s">
         <v>42</v>
       </c>
@@ -17379,7 +17384,7 @@
         <v>951.5</v>
       </c>
     </row>
-    <row r="203" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
         <v>42</v>
       </c>
@@ -17465,7 +17470,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="204" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
         <v>42</v>
       </c>
@@ -17551,7 +17556,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="205" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A205" t="s">
         <v>42</v>
       </c>
@@ -17637,7 +17642,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="206" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A206" t="s">
         <v>43</v>
       </c>
@@ -17723,7 +17728,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="207" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A207" t="s">
         <v>43</v>
       </c>
@@ -17809,7 +17814,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="208" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A208" t="s">
         <v>43</v>
       </c>
@@ -17883,7 +17888,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="209" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A209" t="s">
         <v>43</v>
       </c>
@@ -17969,7 +17974,7 @@
         <v>1324.5</v>
       </c>
     </row>
-    <row r="210" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A210" t="s">
         <v>43</v>
       </c>
@@ -18055,7 +18060,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="211" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A211" t="s">
         <v>43</v>
       </c>
@@ -18138,7 +18143,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="212" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A212" t="s">
         <v>44</v>
       </c>
@@ -18224,7 +18229,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="213" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A213" t="s">
         <v>44</v>
       </c>
@@ -18310,7 +18315,7 @@
         <v>1120.5</v>
       </c>
     </row>
-    <row r="214" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A214" t="s">
         <v>44</v>
       </c>
@@ -18396,7 +18401,7 @@
         <v>1256.5</v>
       </c>
     </row>
-    <row r="215" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A215" t="s">
         <v>44</v>
       </c>
@@ -18482,7 +18487,7 @@
         <v>1461.5</v>
       </c>
     </row>
-    <row r="216" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A216" t="s">
         <v>44</v>
       </c>
@@ -18568,7 +18573,7 @@
         <v>928.5</v>
       </c>
     </row>
-    <row r="217" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A217" t="s">
         <v>44</v>
       </c>
@@ -18654,7 +18659,7 @@
         <v>1762.5</v>
       </c>
     </row>
-    <row r="218" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A218" t="s">
         <v>45</v>
       </c>
@@ -18740,7 +18745,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="219" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A219" t="s">
         <v>45</v>
       </c>
@@ -18826,7 +18831,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="220" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A220" t="s">
         <v>45</v>
       </c>
@@ -18912,7 +18917,7 @@
         <v>846.5</v>
       </c>
     </row>
-    <row r="221" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A221" t="s">
         <v>45</v>
       </c>
@@ -18998,7 +19003,7 @@
         <v>814.5</v>
       </c>
     </row>
-    <row r="222" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A222" t="s">
         <v>45</v>
       </c>
@@ -19084,7 +19089,7 @@
         <v>674.5</v>
       </c>
     </row>
-    <row r="223" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A223" t="s">
         <v>45</v>
       </c>
@@ -19170,7 +19175,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="224" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A224" t="s">
         <v>46</v>
       </c>
@@ -19256,7 +19261,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="225" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A225" t="s">
         <v>46</v>
       </c>
@@ -19342,7 +19347,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="226" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A226" t="s">
         <v>46</v>
       </c>
@@ -19428,7 +19433,7 @@
         <v>846.5</v>
       </c>
     </row>
-    <row r="227" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A227" t="s">
         <v>46</v>
       </c>
@@ -19514,7 +19519,7 @@
         <v>814.5</v>
       </c>
     </row>
-    <row r="228" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A228" t="s">
         <v>46</v>
       </c>
@@ -19600,7 +19605,7 @@
         <v>674.5</v>
       </c>
     </row>
-    <row r="229" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A229" t="s">
         <v>46</v>
       </c>
@@ -19686,7 +19691,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="230" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A230" t="s">
         <v>47</v>
       </c>
@@ -19772,7 +19777,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="231" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A231" t="s">
         <v>47</v>
       </c>
@@ -19858,7 +19863,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="232" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A232" t="s">
         <v>47</v>
       </c>
@@ -19944,7 +19949,7 @@
         <v>846.5</v>
       </c>
     </row>
-    <row r="233" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A233" t="s">
         <v>47</v>
       </c>
@@ -20030,7 +20035,7 @@
         <v>814.5</v>
       </c>
     </row>
-    <row r="234" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A234" t="s">
         <v>47</v>
       </c>
@@ -20116,7 +20121,7 @@
         <v>674.5</v>
       </c>
     </row>
-    <row r="235" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A235" t="s">
         <v>47</v>
       </c>
@@ -20202,7 +20207,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="236" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A236" t="s">
         <v>48</v>
       </c>
@@ -20288,7 +20293,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="237" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A237" t="s">
         <v>48</v>
       </c>
@@ -20374,7 +20379,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="238" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A238" t="s">
         <v>48</v>
       </c>
@@ -20460,7 +20465,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="239" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A239" t="s">
         <v>48</v>
       </c>
@@ -20546,7 +20551,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="240" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A240" t="s">
         <v>48</v>
       </c>
@@ -20632,7 +20637,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="241" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A241" t="s">
         <v>48</v>
       </c>
@@ -20718,7 +20723,7 @@
         <v>1362.5</v>
       </c>
     </row>
-    <row r="242" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A242" t="s">
         <v>49</v>
       </c>
@@ -20804,7 +20809,7 @@
         <v>808.5</v>
       </c>
     </row>
-    <row r="243" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A243" t="s">
         <v>49</v>
       </c>
@@ -20890,7 +20895,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="244" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A244" t="s">
         <v>49</v>
       </c>
@@ -20976,7 +20981,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="245" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A245" t="s">
         <v>49</v>
       </c>
@@ -21062,7 +21067,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="246" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A246" t="s">
         <v>49</v>
       </c>
@@ -21148,7 +21153,7 @@
         <v>1039.5</v>
       </c>
     </row>
-    <row r="247" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A247" t="s">
         <v>49</v>
       </c>
@@ -21234,7 +21239,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="248" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A248" t="s">
         <v>50</v>
       </c>
@@ -21320,7 +21325,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="249" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A249" t="s">
         <v>50</v>
       </c>
@@ -21406,7 +21411,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="250" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A250" t="s">
         <v>50</v>
       </c>
@@ -21492,7 +21497,7 @@
         <v>846.5</v>
       </c>
     </row>
-    <row r="251" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A251" t="s">
         <v>50</v>
       </c>
@@ -21578,7 +21583,7 @@
         <v>814.5</v>
       </c>
     </row>
-    <row r="252" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A252" t="s">
         <v>50</v>
       </c>
@@ -21664,7 +21669,7 @@
         <v>674.5</v>
       </c>
     </row>
-    <row r="253" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A253" t="s">
         <v>50</v>
       </c>
@@ -21750,7 +21755,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="254" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A254" t="s">
         <v>51</v>
       </c>
@@ -21836,7 +21841,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="255" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A255" t="s">
         <v>51</v>
       </c>
@@ -21922,7 +21927,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="256" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A256" t="s">
         <v>51</v>
       </c>
@@ -22008,7 +22013,7 @@
         <v>846.5</v>
       </c>
     </row>
-    <row r="257" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A257" t="s">
         <v>51</v>
       </c>
@@ -22094,7 +22099,7 @@
         <v>814.5</v>
       </c>
     </row>
-    <row r="258" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A258" t="s">
         <v>51</v>
       </c>
@@ -22180,7 +22185,7 @@
         <v>674.5</v>
       </c>
     </row>
-    <row r="259" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A259" t="s">
         <v>51</v>
       </c>
@@ -22266,7 +22271,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="260" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A260" t="s">
         <v>52</v>
       </c>
@@ -22349,7 +22354,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="261" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A261" t="s">
         <v>52</v>
       </c>
@@ -22432,7 +22437,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="262" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A262" t="s">
         <v>52</v>
       </c>
@@ -22515,7 +22520,7 @@
         <v>1237.5</v>
       </c>
     </row>
-    <row r="263" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A263" t="s">
         <v>52</v>
       </c>
@@ -22598,7 +22603,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="264" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A264" t="s">
         <v>52</v>
       </c>
@@ -22681,7 +22686,7 @@
         <v>935.5</v>
       </c>
     </row>
-    <row r="265" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A265" t="s">
         <v>52</v>
       </c>
@@ -22764,7 +22769,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="266" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A266" t="s">
         <v>53</v>
       </c>
@@ -22850,7 +22855,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="267" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A267" t="s">
         <v>53</v>
       </c>
@@ -22936,7 +22941,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="268" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A268" t="s">
         <v>53</v>
       </c>
@@ -23019,7 +23024,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="269" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A269" t="s">
         <v>53</v>
       </c>
@@ -23105,7 +23110,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="270" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A270" t="s">
         <v>53</v>
       </c>
@@ -23191,7 +23196,7 @@
         <v>992.5</v>
       </c>
     </row>
-    <row r="271" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A271" t="s">
         <v>53</v>
       </c>
